--- a/Tests/UnderReview/Cotton/Observed/Narrabri23.xlsx
+++ b/Tests/UnderReview/Cotton/Observed/Narrabri23.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Repos\ApsimX\Tests\UnderReview\Cotton\Observed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E43ABAC-A647-41BC-9077-9F1ECA72AAB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8BAF88-7D50-4F37-8149-3225988EC708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{2CD5F283-94FE-4198-B98E-779709417693}"/>
+    <workbookView xWindow="28690" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{2CD5F283-94FE-4198-B98E-779709417693}"/>
   </bookViews>
   <sheets>
     <sheet name="CottonObserved" sheetId="1" r:id="rId1"/>
@@ -500,12 +500,6 @@
     <t>dw_Bur</t>
   </si>
   <si>
-    <t>Bur.NConc</t>
-  </si>
-  <si>
-    <t>Bur.N</t>
-  </si>
-  <si>
     <t>Cotton.Seed.N</t>
   </si>
   <si>
@@ -582,6 +576,12 @@
   </si>
   <si>
     <t>Soil.Water.Volumetric(9)</t>
+  </si>
+  <si>
+    <t>Cotton.Bur.NConc</t>
+  </si>
+  <si>
+    <t>Cotton.Bur.N</t>
   </si>
 </sst>
 </file>
@@ -991,10 +991,10 @@
   <dimension ref="A1:FJ293"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="DJ54" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="BH2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="DK90" sqref="DK90"/>
+      <selection pane="bottomRight" activeCell="BS1" sqref="BS1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1314,10 +1314,10 @@
         <v>153</v>
       </c>
       <c r="BC1" s="12" t="s">
-        <v>154</v>
+        <v>180</v>
       </c>
       <c r="BD1" s="12" t="s">
-        <v>155</v>
+        <v>181</v>
       </c>
       <c r="BE1" t="s">
         <v>102</v>
@@ -1347,7 +1347,7 @@
         <v>107</v>
       </c>
       <c r="BN1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="BO1" t="s">
         <v>9</v>
@@ -1359,10 +1359,10 @@
         <v>127</v>
       </c>
       <c r="BR1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="BS1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="BT1" t="s">
         <v>108</v>
@@ -1428,7 +1428,7 @@
         <v>67</v>
       </c>
       <c r="CO1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="CP1" t="s">
         <v>89</v>
@@ -1437,88 +1437,88 @@
         <v>113</v>
       </c>
       <c r="CR1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="CS1" t="s">
         <v>76</v>
       </c>
       <c r="CT1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="CU1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="CV1" t="s">
         <v>77</v>
       </c>
       <c r="CW1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="CX1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="CY1" t="s">
         <v>85</v>
       </c>
       <c r="CZ1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="DA1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="DB1" t="s">
         <v>84</v>
       </c>
       <c r="DC1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="DD1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="DE1" t="s">
         <v>83</v>
       </c>
       <c r="DF1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="DG1" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="DH1" t="s">
         <v>94</v>
       </c>
       <c r="DI1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="DJ1" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="DK1" t="s">
         <v>95</v>
       </c>
       <c r="DL1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="DM1" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="DN1" t="s">
         <v>82</v>
       </c>
       <c r="DO1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="DP1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="DQ1" t="s">
         <v>81</v>
       </c>
       <c r="DR1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="DS1" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="DT1" t="s">
         <v>80</v>
@@ -1527,7 +1527,7 @@
         <v>86</v>
       </c>
       <c r="DV1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="DW1" t="s">
         <v>79</v>
@@ -1536,7 +1536,7 @@
         <v>87</v>
       </c>
       <c r="DY1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="DZ1" t="s">
         <v>78</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="2" spans="1:166" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1696,7 +1696,7 @@
     </row>
     <row r="3" spans="1:166" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1812,7 +1812,7 @@
     </row>
     <row r="4" spans="1:166" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="5" spans="1:166" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="6" spans="1:166" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2088,7 +2088,7 @@
     </row>
     <row r="7" spans="1:166" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="8" spans="1:166" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2179,7 +2179,7 @@
     </row>
     <row r="9" spans="1:166" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2295,7 +2295,7 @@
     </row>
     <row r="10" spans="1:166" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -2423,7 +2423,7 @@
     </row>
     <row r="11" spans="1:166" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2539,7 +2539,7 @@
     </row>
     <row r="12" spans="1:166" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2583,7 +2583,7 @@
     </row>
     <row r="13" spans="1:166" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2699,7 +2699,7 @@
     </row>
     <row r="14" spans="1:166" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2746,7 +2746,7 @@
     </row>
     <row r="15" spans="1:166" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2874,7 +2874,7 @@
     </row>
     <row r="16" spans="1:166" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="17" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -3098,7 +3098,7 @@
     </row>
     <row r="18" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -3214,7 +3214,7 @@
     </row>
     <row r="19" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -3342,7 +3342,7 @@
     </row>
     <row r="20" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3386,7 +3386,7 @@
     </row>
     <row r="21" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -3433,7 +3433,7 @@
     </row>
     <row r="22" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="23" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="24" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="25" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -3765,7 +3765,7 @@
     </row>
     <row r="26" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -3881,7 +3881,7 @@
     </row>
     <row r="27" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -3982,7 +3982,7 @@
     </row>
     <row r="28" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -4029,7 +4029,7 @@
     </row>
     <row r="29" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -4131,7 +4131,7 @@
     </row>
     <row r="30" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B30">
         <v>1</v>

--- a/Tests/UnderReview/Cotton/Observed/Narrabri23.xlsx
+++ b/Tests/UnderReview/Cotton/Observed/Narrabri23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Repos\ApsimX\Tests\UnderReview\Cotton\Observed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8BAF88-7D50-4F37-8149-3225988EC708}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E245B915-BEE6-4459-815F-A4FB842506BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28690" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{2CD5F283-94FE-4198-B98E-779709417693}"/>
   </bookViews>
@@ -994,7 +994,7 @@
       <pane xSplit="3" ySplit="1" topLeftCell="BH2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BS1" sqref="BS1"/>
+      <selection pane="bottomRight" activeCell="BS2" sqref="BS2:BS87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -4186,7 +4186,6 @@
         <v>3.0167499999999996E-2</v>
       </c>
       <c r="BS30" s="3">
-        <f>BQ30*BR30</f>
         <v>7.5607315438885241</v>
       </c>
       <c r="BT30" s="3">
@@ -6734,7 +6733,6 @@
         <v>3.2247500000000005E-2</v>
       </c>
       <c r="BS59" s="3">
-        <f>BQ59*BR59</f>
         <v>9.1988246605529689</v>
       </c>
       <c r="BT59" s="3">
@@ -9252,7 +9250,6 @@
         <v>3.6049999999999999E-2</v>
       </c>
       <c r="BS87" s="3">
-        <f>BQ87*BR87</f>
         <v>12.276870777924218</v>
       </c>
       <c r="BT87" s="3">

--- a/Tests/UnderReview/Cotton/Observed/Narrabri23.xlsx
+++ b/Tests/UnderReview/Cotton/Observed/Narrabri23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Repos\ApsimX\Tests\UnderReview\Cotton\Observed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E245B915-BEE6-4459-815F-A4FB842506BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0528BD73-90D2-4FAA-9C45-61A25023081B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28690" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{2CD5F283-94FE-4198-B98E-779709417693}"/>
   </bookViews>
@@ -251,13 +251,7 @@
     <t>Cotton.Phenology.Stage</t>
   </si>
   <si>
-    <t>Cotton.Fruit.Wt</t>
-  </si>
-  <si>
     <t>Cotton.Sites</t>
-  </si>
-  <si>
-    <t>Cotton.Fruit.N</t>
   </si>
   <si>
     <t>Cotton.Stem.N</t>
@@ -458,9 +452,6 @@
     <t>Cotton.Leaf.ExtinctionCoefficientError</t>
   </si>
   <si>
-    <t>Cotton.Leaf.SpecificArea</t>
-  </si>
-  <si>
     <t>Planting</t>
   </si>
   <si>
@@ -582,6 +573,15 @@
   </si>
   <si>
     <t>Cotton.Bur.N</t>
+  </si>
+  <si>
+    <t>Cotton.Boll.Wt</t>
+  </si>
+  <si>
+    <t>Cotton.Boll.N</t>
+  </si>
+  <si>
+    <t>Cotton.Leaf.SpecificAreaCanopy</t>
   </si>
 </sst>
 </file>
@@ -991,10 +991,10 @@
   <dimension ref="A1:FJ293"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="BH2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="AH2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="BS2" sqref="BS2:BS87"/>
+      <selection pane="bottomRight" activeCell="AQ2" sqref="AQ2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1155,7 +1155,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -1176,13 +1176,13 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" t="s">
+        <v>90</v>
+      </c>
+      <c r="K1" t="s">
         <v>91</v>
-      </c>
-      <c r="J1" t="s">
-        <v>92</v>
-      </c>
-      <c r="K1" t="s">
-        <v>93</v>
       </c>
       <c r="L1" t="s">
         <v>53</v>
@@ -1194,10 +1194,10 @@
         <v>64</v>
       </c>
       <c r="O1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="P1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="Q1" t="s">
         <v>54</v>
@@ -1209,7 +1209,7 @@
         <v>55</v>
       </c>
       <c r="T1" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="U1" t="s">
         <v>69</v>
@@ -1218,7 +1218,7 @@
         <v>56</v>
       </c>
       <c r="W1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="X1" t="s">
         <v>16</v>
@@ -1242,19 +1242,19 @@
         <v>58</v>
       </c>
       <c r="AE1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="AF1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AG1" t="s">
         <v>136</v>
       </c>
-      <c r="AG1" t="s">
-        <v>138</v>
-      </c>
       <c r="AH1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AI1" t="s">
         <v>137</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>139</v>
       </c>
       <c r="AJ1" t="s">
         <v>59</v>
@@ -1263,130 +1263,130 @@
         <v>61</v>
       </c>
       <c r="AL1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="AM1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="AN1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="AO1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AP1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="AQ1" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="AR1" t="s">
         <v>60</v>
       </c>
       <c r="AS1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="AT1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="AU1" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="AV1" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="AW1" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>98</v>
+      </c>
+      <c r="AY1" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="AV1" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="AW1" s="12" t="s">
+      <c r="AZ1" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="BA1" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="AX1" t="s">
+      <c r="BB1" s="12" t="s">
+        <v>150</v>
+      </c>
+      <c r="BC1" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="BD1" s="12" t="s">
+        <v>178</v>
+      </c>
+      <c r="BE1" t="s">
         <v>100</v>
       </c>
-      <c r="AY1" s="12" t="s">
+      <c r="BF1" t="s">
         <v>101</v>
       </c>
-      <c r="AZ1" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="BA1" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="BB1" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="BC1" s="12" t="s">
+      <c r="BG1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>179</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>103</v>
+      </c>
+      <c r="BJ1" t="s">
         <v>180</v>
-      </c>
-      <c r="BD1" s="12" t="s">
-        <v>181</v>
-      </c>
-      <c r="BE1" t="s">
-        <v>102</v>
-      </c>
-      <c r="BF1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BG1" t="s">
-        <v>104</v>
-      </c>
-      <c r="BH1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>105</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>73</v>
       </c>
       <c r="BK1" t="s">
         <v>62</v>
       </c>
       <c r="BL1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="BM1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="BN1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="BO1" t="s">
         <v>9</v>
       </c>
       <c r="BP1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>125</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>152</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BT1" t="s">
         <v>106</v>
       </c>
-      <c r="BQ1" t="s">
+      <c r="BU1" t="s">
+        <v>126</v>
+      </c>
+      <c r="BV1" t="s">
         <v>127</v>
       </c>
-      <c r="BR1" t="s">
-        <v>155</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>154</v>
-      </c>
-      <c r="BT1" t="s">
+      <c r="BW1" t="s">
+        <v>112</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>107</v>
+      </c>
+      <c r="BY1" t="s">
         <v>108</v>
       </c>
-      <c r="BU1" t="s">
-        <v>128</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>129</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>114</v>
-      </c>
-      <c r="BX1" t="s">
+      <c r="BZ1" t="s">
         <v>109</v>
       </c>
-      <c r="BY1" t="s">
-        <v>110</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>111</v>
-      </c>
       <c r="CA1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="CB1" t="s">
         <v>4</v>
@@ -1401,13 +1401,13 @@
         <v>7</v>
       </c>
       <c r="CF1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="CG1" t="s">
         <v>8</v>
       </c>
       <c r="CH1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="CI1" t="s">
         <v>50</v>
@@ -1422,127 +1422,127 @@
         <v>66</v>
       </c>
       <c r="CM1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="CN1" t="s">
         <v>67</v>
       </c>
       <c r="CO1" t="s">
+        <v>154</v>
+      </c>
+      <c r="CP1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CQ1" t="s">
+        <v>111</v>
+      </c>
+      <c r="CR1" t="s">
+        <v>155</v>
+      </c>
+      <c r="CS1" t="s">
+        <v>74</v>
+      </c>
+      <c r="CT1" t="s">
+        <v>168</v>
+      </c>
+      <c r="CU1" t="s">
+        <v>156</v>
+      </c>
+      <c r="CV1" t="s">
+        <v>75</v>
+      </c>
+      <c r="CW1" t="s">
+        <v>169</v>
+      </c>
+      <c r="CX1" t="s">
         <v>157</v>
       </c>
-      <c r="CP1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CQ1" t="s">
-        <v>113</v>
-      </c>
-      <c r="CR1" t="s">
+      <c r="CY1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CZ1" t="s">
+        <v>170</v>
+      </c>
+      <c r="DA1" t="s">
         <v>158</v>
       </c>
-      <c r="CS1" t="s">
+      <c r="DB1" t="s">
+        <v>82</v>
+      </c>
+      <c r="DC1" t="s">
+        <v>171</v>
+      </c>
+      <c r="DD1" t="s">
+        <v>159</v>
+      </c>
+      <c r="DE1" t="s">
+        <v>81</v>
+      </c>
+      <c r="DF1" t="s">
+        <v>172</v>
+      </c>
+      <c r="DG1" t="s">
+        <v>160</v>
+      </c>
+      <c r="DH1" t="s">
+        <v>92</v>
+      </c>
+      <c r="DI1" t="s">
+        <v>173</v>
+      </c>
+      <c r="DJ1" t="s">
+        <v>161</v>
+      </c>
+      <c r="DK1" t="s">
+        <v>93</v>
+      </c>
+      <c r="DL1" t="s">
+        <v>174</v>
+      </c>
+      <c r="DM1" t="s">
+        <v>162</v>
+      </c>
+      <c r="DN1" t="s">
+        <v>80</v>
+      </c>
+      <c r="DO1" t="s">
+        <v>175</v>
+      </c>
+      <c r="DP1" t="s">
+        <v>163</v>
+      </c>
+      <c r="DQ1" t="s">
+        <v>79</v>
+      </c>
+      <c r="DR1" t="s">
+        <v>176</v>
+      </c>
+      <c r="DS1" t="s">
+        <v>164</v>
+      </c>
+      <c r="DT1" t="s">
+        <v>78</v>
+      </c>
+      <c r="DU1" t="s">
+        <v>84</v>
+      </c>
+      <c r="DV1" t="s">
+        <v>165</v>
+      </c>
+      <c r="DW1" t="s">
+        <v>77</v>
+      </c>
+      <c r="DX1" t="s">
+        <v>85</v>
+      </c>
+      <c r="DY1" t="s">
+        <v>166</v>
+      </c>
+      <c r="DZ1" t="s">
         <v>76</v>
       </c>
-      <c r="CT1" t="s">
-        <v>171</v>
-      </c>
-      <c r="CU1" t="s">
-        <v>159</v>
-      </c>
-      <c r="CV1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CW1" t="s">
-        <v>172</v>
-      </c>
-      <c r="CX1" t="s">
-        <v>160</v>
-      </c>
-      <c r="CY1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CZ1" t="s">
-        <v>173</v>
-      </c>
-      <c r="DA1" t="s">
-        <v>161</v>
-      </c>
-      <c r="DB1" t="s">
-        <v>84</v>
-      </c>
-      <c r="DC1" t="s">
-        <v>174</v>
-      </c>
-      <c r="DD1" t="s">
-        <v>162</v>
-      </c>
-      <c r="DE1" t="s">
-        <v>83</v>
-      </c>
-      <c r="DF1" t="s">
-        <v>175</v>
-      </c>
-      <c r="DG1" t="s">
-        <v>163</v>
-      </c>
-      <c r="DH1" t="s">
-        <v>94</v>
-      </c>
-      <c r="DI1" t="s">
-        <v>176</v>
-      </c>
-      <c r="DJ1" t="s">
-        <v>164</v>
-      </c>
-      <c r="DK1" t="s">
-        <v>95</v>
-      </c>
-      <c r="DL1" t="s">
-        <v>177</v>
-      </c>
-      <c r="DM1" t="s">
-        <v>165</v>
-      </c>
-      <c r="DN1" t="s">
-        <v>82</v>
-      </c>
-      <c r="DO1" t="s">
-        <v>178</v>
-      </c>
-      <c r="DP1" t="s">
-        <v>166</v>
-      </c>
-      <c r="DQ1" t="s">
-        <v>81</v>
-      </c>
-      <c r="DR1" t="s">
-        <v>179</v>
-      </c>
-      <c r="DS1" t="s">
-        <v>167</v>
-      </c>
-      <c r="DT1" t="s">
-        <v>80</v>
-      </c>
-      <c r="DU1" t="s">
+      <c r="EA1" t="s">
         <v>86</v>
-      </c>
-      <c r="DV1" t="s">
-        <v>168</v>
-      </c>
-      <c r="DW1" t="s">
-        <v>79</v>
-      </c>
-      <c r="DX1" t="s">
-        <v>87</v>
-      </c>
-      <c r="DY1" t="s">
-        <v>169</v>
-      </c>
-      <c r="DZ1" t="s">
-        <v>78</v>
-      </c>
-      <c r="EA1" t="s">
-        <v>88</v>
       </c>
       <c r="EB1" t="s">
         <v>45</v>
@@ -1551,49 +1551,49 @@
         <v>21</v>
       </c>
       <c r="ED1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="EE1" t="s">
         <v>22</v>
       </c>
       <c r="EF1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="EG1" t="s">
         <v>23</v>
       </c>
       <c r="EH1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="EI1" t="s">
         <v>24</v>
       </c>
       <c r="EJ1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="EK1" t="s">
         <v>25</v>
       </c>
       <c r="EL1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="EM1" t="s">
         <v>26</v>
       </c>
       <c r="EN1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="EO1" t="s">
         <v>27</v>
       </c>
       <c r="EP1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="EQ1" t="s">
         <v>28</v>
       </c>
       <c r="ER1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="ES1" t="s">
         <v>46</v>
@@ -1652,7 +1652,7 @@
     </row>
     <row r="2" spans="1:166" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1661,7 +1661,7 @@
         <v>45211</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -1696,7 +1696,7 @@
     </row>
     <row r="3" spans="1:166" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1812,7 +1812,7 @@
     </row>
     <row r="4" spans="1:166" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1928,7 +1928,7 @@
     </row>
     <row r="5" spans="1:166" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2044,7 +2044,7 @@
     </row>
     <row r="6" spans="1:166" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2088,7 +2088,7 @@
     </row>
     <row r="7" spans="1:166" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2097,7 +2097,7 @@
         <v>45266</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -2135,7 +2135,7 @@
     </row>
     <row r="8" spans="1:166" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2179,7 +2179,7 @@
     </row>
     <row r="9" spans="1:166" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2295,7 +2295,7 @@
     </row>
     <row r="10" spans="1:166" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -2423,7 +2423,7 @@
     </row>
     <row r="11" spans="1:166" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2539,7 +2539,7 @@
     </row>
     <row r="12" spans="1:166" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2583,7 +2583,7 @@
     </row>
     <row r="13" spans="1:166" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2699,7 +2699,7 @@
     </row>
     <row r="14" spans="1:166" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2708,7 +2708,7 @@
         <v>45286</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
@@ -2746,7 +2746,7 @@
     </row>
     <row r="15" spans="1:166" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2874,7 +2874,7 @@
     </row>
     <row r="16" spans="1:166" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2982,7 +2982,7 @@
     </row>
     <row r="17" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -3098,7 +3098,7 @@
     </row>
     <row r="18" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -3214,7 +3214,7 @@
     </row>
     <row r="19" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -3342,7 +3342,7 @@
     </row>
     <row r="20" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3386,7 +3386,7 @@
     </row>
     <row r="21" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -3395,7 +3395,7 @@
         <v>45309</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F21" t="s">
         <v>51</v>
@@ -3433,7 +3433,7 @@
     </row>
     <row r="22" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -3549,7 +3549,7 @@
     </row>
     <row r="23" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -3593,7 +3593,7 @@
     </row>
     <row r="24" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -3637,7 +3637,7 @@
     </row>
     <row r="25" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -3765,7 +3765,7 @@
     </row>
     <row r="26" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -3881,7 +3881,7 @@
     </row>
     <row r="27" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -3982,7 +3982,7 @@
     </row>
     <row r="28" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -3991,7 +3991,7 @@
         <v>45355</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F28" t="s">
         <v>14</v>
@@ -4029,7 +4029,7 @@
     </row>
     <row r="29" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -4131,7 +4131,7 @@
     </row>
     <row r="30" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -4140,7 +4140,7 @@
         <v>45415</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F30" t="s">
         <v>15</v>
@@ -4200,7 +4200,7 @@
     </row>
     <row r="31" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -4209,7 +4209,7 @@
         <v>45211</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F31" t="s">
         <v>10</v>
@@ -4244,7 +4244,7 @@
     </row>
     <row r="32" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -4360,7 +4360,7 @@
     </row>
     <row r="33" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A33" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -4476,7 +4476,7 @@
     </row>
     <row r="34" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -4592,7 +4592,7 @@
     </row>
     <row r="35" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -4636,7 +4636,7 @@
     </row>
     <row r="36" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A36" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -4645,7 +4645,7 @@
         <v>45266</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F36" t="s">
         <v>12</v>
@@ -4683,7 +4683,7 @@
     </row>
     <row r="37" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -4727,7 +4727,7 @@
     </row>
     <row r="38" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -4843,7 +4843,7 @@
     </row>
     <row r="39" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -4971,7 +4971,7 @@
     </row>
     <row r="40" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -5087,7 +5087,7 @@
     </row>
     <row r="41" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -5131,7 +5131,7 @@
     </row>
     <row r="42" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -5247,7 +5247,7 @@
     </row>
     <row r="43" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -5256,7 +5256,7 @@
         <v>45286</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F43" t="s">
         <v>13</v>
@@ -5294,7 +5294,7 @@
     </row>
     <row r="44" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -5422,7 +5422,7 @@
     </row>
     <row r="45" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A45" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -5530,7 +5530,7 @@
     </row>
     <row r="46" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -5646,7 +5646,7 @@
     </row>
     <row r="47" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -5762,7 +5762,7 @@
     </row>
     <row r="48" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -5890,7 +5890,7 @@
     </row>
     <row r="49" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -5934,7 +5934,7 @@
     </row>
     <row r="50" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B50">
         <v>3</v>
@@ -6050,7 +6050,7 @@
     </row>
     <row r="51" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -6059,7 +6059,7 @@
         <v>45312</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F51" t="s">
         <v>51</v>
@@ -6097,7 +6097,7 @@
     </row>
     <row r="52" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B52">
         <v>3</v>
@@ -6141,7 +6141,7 @@
     </row>
     <row r="53" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -6185,7 +6185,7 @@
     </row>
     <row r="54" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B54">
         <v>3</v>
@@ -6313,7 +6313,7 @@
     </row>
     <row r="55" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A55" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B55">
         <v>3</v>
@@ -6429,7 +6429,7 @@
     </row>
     <row r="56" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B56">
         <v>3</v>
@@ -6530,7 +6530,7 @@
     </row>
     <row r="57" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B57">
         <v>3</v>
@@ -6539,7 +6539,7 @@
         <v>45351</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F57" t="s">
         <v>14</v>
@@ -6577,7 +6577,7 @@
     </row>
     <row r="58" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A58" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B58">
         <v>3</v>
@@ -6679,7 +6679,7 @@
     </row>
     <row r="59" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B59">
         <v>3</v>
@@ -6688,7 +6688,7 @@
         <v>45415</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F59" t="s">
         <v>15</v>
@@ -6747,7 +6747,7 @@
     </row>
     <row r="60" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B60">
         <v>5</v>
@@ -6756,7 +6756,7 @@
         <v>45211</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F60" t="s">
         <v>10</v>
@@ -6791,7 +6791,7 @@
     </row>
     <row r="61" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B61">
         <v>5</v>
@@ -6907,7 +6907,7 @@
     </row>
     <row r="62" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B62">
         <v>5</v>
@@ -7023,7 +7023,7 @@
     </row>
     <row r="63" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B63">
         <v>5</v>
@@ -7139,7 +7139,7 @@
     </row>
     <row r="64" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B64">
         <v>5</v>
@@ -7183,7 +7183,7 @@
     </row>
     <row r="65" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A65" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B65">
         <v>5</v>
@@ -7192,7 +7192,7 @@
         <v>45266</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F65" t="s">
         <v>12</v>
@@ -7230,7 +7230,7 @@
     </row>
     <row r="66" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B66">
         <v>5</v>
@@ -7274,7 +7274,7 @@
     </row>
     <row r="67" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B67">
         <v>5</v>
@@ -7390,7 +7390,7 @@
     </row>
     <row r="68" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B68">
         <v>5</v>
@@ -7518,7 +7518,7 @@
     </row>
     <row r="69" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B69">
         <v>5</v>
@@ -7634,7 +7634,7 @@
     </row>
     <row r="70" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B70">
         <v>5</v>
@@ -7678,7 +7678,7 @@
     </row>
     <row r="71" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B71">
         <v>5</v>
@@ -7794,7 +7794,7 @@
     </row>
     <row r="72" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A72" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B72">
         <v>5</v>
@@ -7803,7 +7803,7 @@
         <v>45284</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F72" t="s">
         <v>13</v>
@@ -7841,7 +7841,7 @@
     </row>
     <row r="73" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B73">
         <v>5</v>
@@ -7969,7 +7969,7 @@
     </row>
     <row r="74" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B74">
         <v>5</v>
@@ -8077,7 +8077,7 @@
     </row>
     <row r="75" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B75">
         <v>5</v>
@@ -8193,7 +8193,7 @@
     </row>
     <row r="76" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B76">
         <v>5</v>
@@ -8309,7 +8309,7 @@
     </row>
     <row r="77" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B77">
         <v>5</v>
@@ -8437,7 +8437,7 @@
     </row>
     <row r="78" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B78">
         <v>5</v>
@@ -8481,7 +8481,7 @@
     </row>
     <row r="79" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B79">
         <v>5</v>
@@ -8597,7 +8597,7 @@
     </row>
     <row r="80" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A80" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B80">
         <v>5</v>
@@ -8641,7 +8641,7 @@
     </row>
     <row r="81" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A81" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B81">
         <v>5</v>
@@ -8650,7 +8650,7 @@
         <v>45316</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F81" t="s">
         <v>51</v>
@@ -8688,7 +8688,7 @@
     </row>
     <row r="82" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B82">
         <v>5</v>
@@ -8732,7 +8732,7 @@
     </row>
     <row r="83" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A83" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B83">
         <v>5</v>
@@ -8860,7 +8860,7 @@
     </row>
     <row r="84" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B84">
         <v>5</v>
@@ -8976,7 +8976,7 @@
     </row>
     <row r="85" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B85">
         <v>5</v>
@@ -9085,7 +9085,7 @@
     </row>
     <row r="86" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B86">
         <v>5</v>
@@ -9094,7 +9094,7 @@
         <v>45370</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F86" t="s">
         <v>14</v>
@@ -9196,7 +9196,7 @@
     </row>
     <row r="87" spans="1:122" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B87">
         <v>5</v>
@@ -9205,7 +9205,7 @@
         <v>45415</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="F87" t="s">
         <v>15</v>

--- a/Tests/UnderReview/Cotton/Observed/Narrabri23.xlsx
+++ b/Tests/UnderReview/Cotton/Observed/Narrabri23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ApsimX\Tests\UnderReview\Cotton\Observed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1A83544-2EF2-4675-82BD-DB3B57A867FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E68FFA-27D2-4795-99CD-ABE97EF748A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="3360" windowWidth="29040" windowHeight="17640" xr2:uid="{2CD5F283-94FE-4198-B98E-779709417693}"/>
   </bookViews>
@@ -991,10 +991,10 @@
   <dimension ref="A1:FJ292"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="U53" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="W29" sqref="W2:W86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1676,6 +1676,21 @@
       <c r="J2">
         <v>1000</v>
       </c>
+      <c r="R2">
+        <v>55</v>
+      </c>
+      <c r="S2">
+        <v>74</v>
+      </c>
+      <c r="U2">
+        <v>97</v>
+      </c>
+      <c r="V2">
+        <v>144</v>
+      </c>
+      <c r="W2">
+        <v>210</v>
+      </c>
       <c r="AU2"/>
       <c r="AV2"/>
       <c r="AW2"/>
@@ -1714,6 +1729,21 @@
       <c r="J3">
         <v>1000</v>
       </c>
+      <c r="R3">
+        <v>55</v>
+      </c>
+      <c r="S3">
+        <v>74</v>
+      </c>
+      <c r="U3">
+        <v>97</v>
+      </c>
+      <c r="V3">
+        <v>144</v>
+      </c>
+      <c r="W3">
+        <v>210</v>
+      </c>
       <c r="AU3"/>
       <c r="AV3"/>
       <c r="AW3"/>
@@ -1830,6 +1860,21 @@
       <c r="J4">
         <v>1000</v>
       </c>
+      <c r="R4">
+        <v>55</v>
+      </c>
+      <c r="S4">
+        <v>74</v>
+      </c>
+      <c r="U4">
+        <v>97</v>
+      </c>
+      <c r="V4">
+        <v>144</v>
+      </c>
+      <c r="W4">
+        <v>210</v>
+      </c>
       <c r="AU4"/>
       <c r="AV4"/>
       <c r="AW4"/>
@@ -1946,6 +1991,21 @@
       <c r="J5">
         <v>1000</v>
       </c>
+      <c r="R5">
+        <v>55</v>
+      </c>
+      <c r="S5">
+        <v>74</v>
+      </c>
+      <c r="U5">
+        <v>97</v>
+      </c>
+      <c r="V5">
+        <v>144</v>
+      </c>
+      <c r="W5">
+        <v>210</v>
+      </c>
       <c r="AU5"/>
       <c r="AV5"/>
       <c r="AW5"/>
@@ -2067,6 +2127,21 @@
       </c>
       <c r="N6" s="1">
         <v>9.75</v>
+      </c>
+      <c r="R6">
+        <v>55</v>
+      </c>
+      <c r="S6">
+        <v>74</v>
+      </c>
+      <c r="U6">
+        <v>97</v>
+      </c>
+      <c r="V6">
+        <v>144</v>
+      </c>
+      <c r="W6">
+        <v>210</v>
       </c>
       <c r="AU6"/>
       <c r="AV6"/>
@@ -2115,6 +2190,18 @@
       <c r="R7">
         <v>55</v>
       </c>
+      <c r="S7">
+        <v>74</v>
+      </c>
+      <c r="U7">
+        <v>97</v>
+      </c>
+      <c r="V7">
+        <v>144</v>
+      </c>
+      <c r="W7">
+        <v>210</v>
+      </c>
       <c r="AU7"/>
       <c r="AV7"/>
       <c r="AW7"/>
@@ -2159,6 +2246,21 @@
       <c r="N8" s="1">
         <v>11.775</v>
       </c>
+      <c r="R8">
+        <v>55</v>
+      </c>
+      <c r="S8">
+        <v>74</v>
+      </c>
+      <c r="U8">
+        <v>97</v>
+      </c>
+      <c r="V8">
+        <v>144</v>
+      </c>
+      <c r="W8">
+        <v>210</v>
+      </c>
       <c r="AU8"/>
       <c r="AV8"/>
       <c r="AW8"/>
@@ -2197,6 +2299,21 @@
       <c r="J9">
         <v>1000</v>
       </c>
+      <c r="R9">
+        <v>55</v>
+      </c>
+      <c r="S9">
+        <v>74</v>
+      </c>
+      <c r="U9">
+        <v>97</v>
+      </c>
+      <c r="V9">
+        <v>144</v>
+      </c>
+      <c r="W9">
+        <v>210</v>
+      </c>
       <c r="AU9"/>
       <c r="AV9"/>
       <c r="AW9"/>
@@ -2318,6 +2435,21 @@
       </c>
       <c r="N10" s="1">
         <v>13.225</v>
+      </c>
+      <c r="R10">
+        <v>55</v>
+      </c>
+      <c r="S10">
+        <v>74</v>
+      </c>
+      <c r="U10">
+        <v>97</v>
+      </c>
+      <c r="V10">
+        <v>144</v>
+      </c>
+      <c r="W10">
+        <v>210</v>
       </c>
       <c r="AU10"/>
       <c r="AV10"/>
@@ -2441,6 +2573,21 @@
       <c r="J11">
         <v>1000</v>
       </c>
+      <c r="R11">
+        <v>55</v>
+      </c>
+      <c r="S11">
+        <v>74</v>
+      </c>
+      <c r="U11">
+        <v>97</v>
+      </c>
+      <c r="V11">
+        <v>144</v>
+      </c>
+      <c r="W11">
+        <v>210</v>
+      </c>
       <c r="AU11"/>
       <c r="AV11"/>
       <c r="AW11"/>
@@ -2562,6 +2709,21 @@
       </c>
       <c r="N12" s="1">
         <v>15.625</v>
+      </c>
+      <c r="R12">
+        <v>55</v>
+      </c>
+      <c r="S12">
+        <v>74</v>
+      </c>
+      <c r="U12">
+        <v>97</v>
+      </c>
+      <c r="V12">
+        <v>144</v>
+      </c>
+      <c r="W12">
+        <v>210</v>
       </c>
       <c r="AU12"/>
       <c r="AV12"/>
@@ -2601,6 +2763,21 @@
       <c r="J13">
         <v>1000</v>
       </c>
+      <c r="R13">
+        <v>55</v>
+      </c>
+      <c r="S13">
+        <v>74</v>
+      </c>
+      <c r="U13">
+        <v>97</v>
+      </c>
+      <c r="V13">
+        <v>144</v>
+      </c>
+      <c r="W13">
+        <v>210</v>
+      </c>
       <c r="AU13"/>
       <c r="AV13"/>
       <c r="AW13"/>
@@ -2723,8 +2900,20 @@
       <c r="J14">
         <v>1000</v>
       </c>
+      <c r="R14">
+        <v>55</v>
+      </c>
       <c r="S14">
         <v>74</v>
+      </c>
+      <c r="U14">
+        <v>97</v>
+      </c>
+      <c r="V14">
+        <v>144</v>
+      </c>
+      <c r="W14">
+        <v>210</v>
       </c>
       <c r="AU14"/>
       <c r="AV14"/>
@@ -2769,6 +2958,21 @@
       </c>
       <c r="N15" s="1">
         <v>16.820512820512821</v>
+      </c>
+      <c r="R15">
+        <v>55</v>
+      </c>
+      <c r="S15">
+        <v>74</v>
+      </c>
+      <c r="U15">
+        <v>97</v>
+      </c>
+      <c r="V15">
+        <v>144</v>
+      </c>
+      <c r="W15">
+        <v>210</v>
       </c>
       <c r="AU15"/>
       <c r="AV15"/>
@@ -2898,6 +3102,21 @@
       <c r="N16" s="1">
         <v>18.7</v>
       </c>
+      <c r="R16">
+        <v>55</v>
+      </c>
+      <c r="S16">
+        <v>74</v>
+      </c>
+      <c r="U16">
+        <v>97</v>
+      </c>
+      <c r="V16">
+        <v>144</v>
+      </c>
+      <c r="W16">
+        <v>210</v>
+      </c>
       <c r="Z16" s="3">
         <v>10.3</v>
       </c>
@@ -2999,6 +3218,21 @@
       </c>
       <c r="J17">
         <v>1000</v>
+      </c>
+      <c r="R17">
+        <v>55</v>
+      </c>
+      <c r="S17">
+        <v>74</v>
+      </c>
+      <c r="U17">
+        <v>97</v>
+      </c>
+      <c r="V17">
+        <v>144</v>
+      </c>
+      <c r="W17">
+        <v>210</v>
       </c>
       <c r="AU17" s="1"/>
       <c r="AV17" s="8"/>
@@ -3116,6 +3350,21 @@
       <c r="J18">
         <v>1000</v>
       </c>
+      <c r="R18">
+        <v>55</v>
+      </c>
+      <c r="S18">
+        <v>74</v>
+      </c>
+      <c r="U18">
+        <v>97</v>
+      </c>
+      <c r="V18">
+        <v>144</v>
+      </c>
+      <c r="W18">
+        <v>210</v>
+      </c>
       <c r="AU18" s="1"/>
       <c r="AV18" s="8"/>
       <c r="AW18" s="4"/>
@@ -3237,6 +3486,21 @@
       </c>
       <c r="N19" s="1">
         <v>20.23076923076923</v>
+      </c>
+      <c r="R19">
+        <v>55</v>
+      </c>
+      <c r="S19">
+        <v>74</v>
+      </c>
+      <c r="U19">
+        <v>97</v>
+      </c>
+      <c r="V19">
+        <v>144</v>
+      </c>
+      <c r="W19">
+        <v>210</v>
       </c>
       <c r="AU19" s="1"/>
       <c r="AV19" s="8"/>
@@ -3372,8 +3636,20 @@
       <c r="N20" s="1">
         <v>21</v>
       </c>
+      <c r="R20">
+        <v>55</v>
+      </c>
+      <c r="S20">
+        <v>74</v>
+      </c>
       <c r="U20">
         <v>97</v>
+      </c>
+      <c r="V20">
+        <v>144</v>
+      </c>
+      <c r="W20">
+        <v>210</v>
       </c>
       <c r="AU20" s="1"/>
       <c r="AV20" s="8"/>
@@ -3413,6 +3689,21 @@
       <c r="J21">
         <v>1000</v>
       </c>
+      <c r="R21">
+        <v>55</v>
+      </c>
+      <c r="S21">
+        <v>74</v>
+      </c>
+      <c r="U21">
+        <v>97</v>
+      </c>
+      <c r="V21">
+        <v>144</v>
+      </c>
+      <c r="W21">
+        <v>210</v>
+      </c>
       <c r="AU21" s="1"/>
       <c r="AV21" s="8"/>
       <c r="AW21" s="4"/>
@@ -3534,6 +3825,21 @@
       </c>
       <c r="N22" s="1">
         <v>21.375</v>
+      </c>
+      <c r="R22">
+        <v>55</v>
+      </c>
+      <c r="S22">
+        <v>74</v>
+      </c>
+      <c r="U22">
+        <v>97</v>
+      </c>
+      <c r="V22">
+        <v>144</v>
+      </c>
+      <c r="W22">
+        <v>210</v>
       </c>
       <c r="AU22" s="1"/>
       <c r="AV22" s="8"/>
@@ -3579,6 +3885,21 @@
       <c r="N23" s="1">
         <v>21.824999999999999</v>
       </c>
+      <c r="R23">
+        <v>55</v>
+      </c>
+      <c r="S23">
+        <v>74</v>
+      </c>
+      <c r="U23">
+        <v>97</v>
+      </c>
+      <c r="V23">
+        <v>144</v>
+      </c>
+      <c r="W23">
+        <v>210</v>
+      </c>
       <c r="AU23" s="1"/>
       <c r="AV23" s="8"/>
       <c r="AW23" s="4"/>
@@ -3622,6 +3943,21 @@
       </c>
       <c r="N24" s="1">
         <v>22.2</v>
+      </c>
+      <c r="R24">
+        <v>55</v>
+      </c>
+      <c r="S24">
+        <v>74</v>
+      </c>
+      <c r="U24">
+        <v>97</v>
+      </c>
+      <c r="V24">
+        <v>144</v>
+      </c>
+      <c r="W24">
+        <v>210</v>
       </c>
       <c r="AU24" s="1"/>
       <c r="AV24" s="8"/>
@@ -3745,6 +4081,21 @@
       <c r="J25">
         <v>1000</v>
       </c>
+      <c r="R25">
+        <v>55</v>
+      </c>
+      <c r="S25">
+        <v>74</v>
+      </c>
+      <c r="U25">
+        <v>97</v>
+      </c>
+      <c r="V25">
+        <v>144</v>
+      </c>
+      <c r="W25">
+        <v>210</v>
+      </c>
       <c r="AU25" s="1"/>
       <c r="AV25" s="8"/>
       <c r="AW25" s="4"/>
@@ -3867,6 +4218,21 @@
       <c r="N26" s="3">
         <v>20.85</v>
       </c>
+      <c r="R26">
+        <v>55</v>
+      </c>
+      <c r="S26">
+        <v>74</v>
+      </c>
+      <c r="U26">
+        <v>97</v>
+      </c>
+      <c r="V26">
+        <v>144</v>
+      </c>
+      <c r="W26">
+        <v>210</v>
+      </c>
       <c r="Z26" s="3">
         <v>9.15</v>
       </c>
@@ -3968,8 +4334,20 @@
       <c r="J27">
         <v>1000</v>
       </c>
+      <c r="R27">
+        <v>55</v>
+      </c>
+      <c r="S27">
+        <v>74</v>
+      </c>
+      <c r="U27">
+        <v>97</v>
+      </c>
       <c r="V27">
         <v>144</v>
+      </c>
+      <c r="W27">
+        <v>210</v>
       </c>
       <c r="AU27" s="1"/>
       <c r="AV27" s="8"/>
@@ -4015,6 +4393,21 @@
       <c r="N28" s="3">
         <v>24.1</v>
       </c>
+      <c r="R28">
+        <v>55</v>
+      </c>
+      <c r="S28">
+        <v>74</v>
+      </c>
+      <c r="U28">
+        <v>97</v>
+      </c>
+      <c r="V28">
+        <v>144</v>
+      </c>
+      <c r="W28">
+        <v>210</v>
+      </c>
       <c r="Z28" s="3">
         <v>8.6</v>
       </c>
@@ -4116,6 +4509,18 @@
       </c>
       <c r="J29">
         <v>1000</v>
+      </c>
+      <c r="R29">
+        <v>55</v>
+      </c>
+      <c r="S29">
+        <v>74</v>
+      </c>
+      <c r="U29">
+        <v>97</v>
+      </c>
+      <c r="V29">
+        <v>144</v>
       </c>
       <c r="W29">
         <v>210</v>
@@ -4185,6 +4590,21 @@
       </c>
       <c r="J30">
         <v>1000</v>
+      </c>
+      <c r="R30">
+        <v>55</v>
+      </c>
+      <c r="S30">
+        <v>75</v>
+      </c>
+      <c r="U30">
+        <v>91</v>
+      </c>
+      <c r="V30">
+        <v>139</v>
+      </c>
+      <c r="W30">
+        <v>210</v>
       </c>
       <c r="AU30"/>
       <c r="AV30"/>
@@ -4224,6 +4644,21 @@
       <c r="J31">
         <v>1000</v>
       </c>
+      <c r="R31">
+        <v>55</v>
+      </c>
+      <c r="S31">
+        <v>75</v>
+      </c>
+      <c r="U31">
+        <v>91</v>
+      </c>
+      <c r="V31">
+        <v>139</v>
+      </c>
+      <c r="W31">
+        <v>210</v>
+      </c>
       <c r="AU31"/>
       <c r="AV31"/>
       <c r="AW31"/>
@@ -4340,6 +4775,21 @@
       <c r="J32">
         <v>1000</v>
       </c>
+      <c r="R32">
+        <v>55</v>
+      </c>
+      <c r="S32">
+        <v>75</v>
+      </c>
+      <c r="U32">
+        <v>91</v>
+      </c>
+      <c r="V32">
+        <v>139</v>
+      </c>
+      <c r="W32">
+        <v>210</v>
+      </c>
       <c r="AU32"/>
       <c r="AV32"/>
       <c r="AW32"/>
@@ -4456,6 +4906,21 @@
       <c r="J33">
         <v>1000</v>
       </c>
+      <c r="R33">
+        <v>55</v>
+      </c>
+      <c r="S33">
+        <v>75</v>
+      </c>
+      <c r="U33">
+        <v>91</v>
+      </c>
+      <c r="V33">
+        <v>139</v>
+      </c>
+      <c r="W33">
+        <v>210</v>
+      </c>
       <c r="AU33"/>
       <c r="AV33"/>
       <c r="AW33"/>
@@ -4577,6 +5042,21 @@
       </c>
       <c r="N34" s="1">
         <v>9.4</v>
+      </c>
+      <c r="R34">
+        <v>55</v>
+      </c>
+      <c r="S34">
+        <v>75</v>
+      </c>
+      <c r="U34">
+        <v>91</v>
+      </c>
+      <c r="V34">
+        <v>139</v>
+      </c>
+      <c r="W34">
+        <v>210</v>
       </c>
       <c r="AU34"/>
       <c r="AV34"/>
@@ -4625,6 +5105,18 @@
       <c r="R35">
         <v>55</v>
       </c>
+      <c r="S35">
+        <v>75</v>
+      </c>
+      <c r="U35">
+        <v>91</v>
+      </c>
+      <c r="V35">
+        <v>139</v>
+      </c>
+      <c r="W35">
+        <v>210</v>
+      </c>
       <c r="AU35"/>
       <c r="AV35"/>
       <c r="AW35"/>
@@ -4669,6 +5161,21 @@
       <c r="N36" s="1">
         <v>11.225</v>
       </c>
+      <c r="R36">
+        <v>55</v>
+      </c>
+      <c r="S36">
+        <v>75</v>
+      </c>
+      <c r="U36">
+        <v>91</v>
+      </c>
+      <c r="V36">
+        <v>139</v>
+      </c>
+      <c r="W36">
+        <v>210</v>
+      </c>
       <c r="AU36"/>
       <c r="AV36"/>
       <c r="AW36"/>
@@ -4707,6 +5214,21 @@
       <c r="J37">
         <v>1000</v>
       </c>
+      <c r="R37">
+        <v>55</v>
+      </c>
+      <c r="S37">
+        <v>75</v>
+      </c>
+      <c r="U37">
+        <v>91</v>
+      </c>
+      <c r="V37">
+        <v>139</v>
+      </c>
+      <c r="W37">
+        <v>210</v>
+      </c>
       <c r="AU37"/>
       <c r="AV37"/>
       <c r="AW37"/>
@@ -4828,6 +5350,21 @@
       </c>
       <c r="N38" s="1">
         <v>12.5</v>
+      </c>
+      <c r="R38">
+        <v>55</v>
+      </c>
+      <c r="S38">
+        <v>75</v>
+      </c>
+      <c r="U38">
+        <v>91</v>
+      </c>
+      <c r="V38">
+        <v>139</v>
+      </c>
+      <c r="W38">
+        <v>210</v>
       </c>
       <c r="AU38"/>
       <c r="AV38"/>
@@ -4951,6 +5488,21 @@
       <c r="J39">
         <v>1000</v>
       </c>
+      <c r="R39">
+        <v>55</v>
+      </c>
+      <c r="S39">
+        <v>75</v>
+      </c>
+      <c r="U39">
+        <v>91</v>
+      </c>
+      <c r="V39">
+        <v>139</v>
+      </c>
+      <c r="W39">
+        <v>210</v>
+      </c>
       <c r="AU39"/>
       <c r="AV39"/>
       <c r="AW39"/>
@@ -5072,6 +5624,21 @@
       </c>
       <c r="N40" s="1">
         <v>14.95</v>
+      </c>
+      <c r="R40">
+        <v>55</v>
+      </c>
+      <c r="S40">
+        <v>75</v>
+      </c>
+      <c r="U40">
+        <v>91</v>
+      </c>
+      <c r="V40">
+        <v>139</v>
+      </c>
+      <c r="W40">
+        <v>210</v>
       </c>
       <c r="AU40"/>
       <c r="AV40"/>
@@ -5111,6 +5678,21 @@
       <c r="J41">
         <v>1000</v>
       </c>
+      <c r="R41">
+        <v>55</v>
+      </c>
+      <c r="S41">
+        <v>75</v>
+      </c>
+      <c r="U41">
+        <v>91</v>
+      </c>
+      <c r="V41">
+        <v>139</v>
+      </c>
+      <c r="W41">
+        <v>210</v>
+      </c>
       <c r="AU41"/>
       <c r="AV41"/>
       <c r="AW41"/>
@@ -5233,8 +5815,20 @@
       <c r="J42">
         <v>1000</v>
       </c>
+      <c r="R42">
+        <v>55</v>
+      </c>
       <c r="S42">
         <v>75</v>
+      </c>
+      <c r="U42">
+        <v>91</v>
+      </c>
+      <c r="V42">
+        <v>139</v>
+      </c>
+      <c r="W42">
+        <v>210</v>
       </c>
       <c r="AU42"/>
       <c r="AV42"/>
@@ -5279,6 +5873,21 @@
       </c>
       <c r="N43" s="1">
         <v>16.824999999999999</v>
+      </c>
+      <c r="R43">
+        <v>55</v>
+      </c>
+      <c r="S43">
+        <v>75</v>
+      </c>
+      <c r="U43">
+        <v>91</v>
+      </c>
+      <c r="V43">
+        <v>139</v>
+      </c>
+      <c r="W43">
+        <v>210</v>
       </c>
       <c r="AU43"/>
       <c r="AV43"/>
@@ -5408,6 +6017,21 @@
       <c r="N44" s="1">
         <v>18.125</v>
       </c>
+      <c r="R44">
+        <v>55</v>
+      </c>
+      <c r="S44">
+        <v>75</v>
+      </c>
+      <c r="U44">
+        <v>91</v>
+      </c>
+      <c r="V44">
+        <v>139</v>
+      </c>
+      <c r="W44">
+        <v>210</v>
+      </c>
       <c r="Z44" s="3">
         <v>11.1</v>
       </c>
@@ -5509,6 +6133,21 @@
       </c>
       <c r="J45">
         <v>1000</v>
+      </c>
+      <c r="R45">
+        <v>55</v>
+      </c>
+      <c r="S45">
+        <v>75</v>
+      </c>
+      <c r="U45">
+        <v>91</v>
+      </c>
+      <c r="V45">
+        <v>139</v>
+      </c>
+      <c r="W45">
+        <v>210</v>
       </c>
       <c r="AU45" s="1"/>
       <c r="AV45" s="8"/>
@@ -5626,6 +6265,21 @@
       <c r="J46">
         <v>1000</v>
       </c>
+      <c r="R46">
+        <v>55</v>
+      </c>
+      <c r="S46">
+        <v>75</v>
+      </c>
+      <c r="U46">
+        <v>91</v>
+      </c>
+      <c r="V46">
+        <v>139</v>
+      </c>
+      <c r="W46">
+        <v>210</v>
+      </c>
       <c r="AU46" s="1"/>
       <c r="AV46" s="8"/>
       <c r="AW46"/>
@@ -5748,8 +6402,20 @@
       <c r="J47">
         <v>1000</v>
       </c>
+      <c r="R47">
+        <v>55</v>
+      </c>
+      <c r="S47">
+        <v>75</v>
+      </c>
       <c r="U47">
         <v>91</v>
+      </c>
+      <c r="V47">
+        <v>139</v>
+      </c>
+      <c r="W47">
+        <v>210</v>
       </c>
       <c r="AU47" s="1"/>
       <c r="AV47" s="8"/>
@@ -5798,6 +6464,21 @@
       <c r="N48" s="1">
         <v>20</v>
       </c>
+      <c r="R48">
+        <v>55</v>
+      </c>
+      <c r="S48">
+        <v>75</v>
+      </c>
+      <c r="U48">
+        <v>91</v>
+      </c>
+      <c r="V48">
+        <v>139</v>
+      </c>
+      <c r="W48">
+        <v>210</v>
+      </c>
       <c r="AU48" s="1"/>
       <c r="AV48" s="8"/>
       <c r="AW48"/>
@@ -5926,6 +6607,21 @@
       <c r="N49" s="1">
         <v>21.15</v>
       </c>
+      <c r="R49">
+        <v>55</v>
+      </c>
+      <c r="S49">
+        <v>75</v>
+      </c>
+      <c r="U49">
+        <v>91</v>
+      </c>
+      <c r="V49">
+        <v>139</v>
+      </c>
+      <c r="W49">
+        <v>210</v>
+      </c>
       <c r="AU49" s="1"/>
       <c r="AV49" s="8"/>
       <c r="AW49"/>
@@ -5964,6 +6660,21 @@
       <c r="J50">
         <v>1000</v>
       </c>
+      <c r="R50">
+        <v>55</v>
+      </c>
+      <c r="S50">
+        <v>75</v>
+      </c>
+      <c r="U50">
+        <v>91</v>
+      </c>
+      <c r="V50">
+        <v>139</v>
+      </c>
+      <c r="W50">
+        <v>210</v>
+      </c>
       <c r="AU50" s="1"/>
       <c r="AV50" s="8"/>
       <c r="AW50"/>
@@ -6085,6 +6796,21 @@
       </c>
       <c r="N51" s="1">
         <v>21.774999999999999</v>
+      </c>
+      <c r="R51">
+        <v>55</v>
+      </c>
+      <c r="S51">
+        <v>75</v>
+      </c>
+      <c r="U51">
+        <v>91</v>
+      </c>
+      <c r="V51">
+        <v>139</v>
+      </c>
+      <c r="W51">
+        <v>210</v>
       </c>
       <c r="AU51" s="1"/>
       <c r="AV51" s="8"/>
@@ -6130,6 +6856,21 @@
       <c r="N52" s="1">
         <v>21.95</v>
       </c>
+      <c r="R52">
+        <v>55</v>
+      </c>
+      <c r="S52">
+        <v>75</v>
+      </c>
+      <c r="U52">
+        <v>91</v>
+      </c>
+      <c r="V52">
+        <v>139</v>
+      </c>
+      <c r="W52">
+        <v>210</v>
+      </c>
       <c r="AU52" s="1"/>
       <c r="AV52" s="8"/>
       <c r="AW52"/>
@@ -6173,6 +6914,21 @@
       </c>
       <c r="N53" s="1">
         <v>22.3</v>
+      </c>
+      <c r="R53">
+        <v>55</v>
+      </c>
+      <c r="S53">
+        <v>75</v>
+      </c>
+      <c r="U53">
+        <v>91</v>
+      </c>
+      <c r="V53">
+        <v>139</v>
+      </c>
+      <c r="W53">
+        <v>210</v>
       </c>
       <c r="AU53" s="1"/>
       <c r="AV53" s="8"/>
@@ -6296,6 +7052,21 @@
       <c r="J54">
         <v>1000</v>
       </c>
+      <c r="R54">
+        <v>55</v>
+      </c>
+      <c r="S54">
+        <v>75</v>
+      </c>
+      <c r="U54">
+        <v>91</v>
+      </c>
+      <c r="V54">
+        <v>139</v>
+      </c>
+      <c r="W54">
+        <v>210</v>
+      </c>
       <c r="AU54" s="1"/>
       <c r="AV54" s="8"/>
       <c r="AW54"/>
@@ -6418,6 +7189,21 @@
       <c r="N55" s="3">
         <v>21.85</v>
       </c>
+      <c r="R55">
+        <v>55</v>
+      </c>
+      <c r="S55">
+        <v>75</v>
+      </c>
+      <c r="U55">
+        <v>91</v>
+      </c>
+      <c r="V55">
+        <v>139</v>
+      </c>
+      <c r="W55">
+        <v>210</v>
+      </c>
       <c r="Z55" s="3">
         <v>8.85</v>
       </c>
@@ -6519,8 +7305,20 @@
       <c r="J56">
         <v>1000</v>
       </c>
+      <c r="R56">
+        <v>55</v>
+      </c>
+      <c r="S56">
+        <v>75</v>
+      </c>
+      <c r="U56">
+        <v>91</v>
+      </c>
       <c r="V56">
         <v>139</v>
+      </c>
+      <c r="W56">
+        <v>210</v>
       </c>
       <c r="AU56" s="1"/>
       <c r="AV56" s="8"/>
@@ -6566,6 +7364,21 @@
       <c r="N57" s="3">
         <v>25.2</v>
       </c>
+      <c r="R57">
+        <v>55</v>
+      </c>
+      <c r="S57">
+        <v>75</v>
+      </c>
+      <c r="U57">
+        <v>91</v>
+      </c>
+      <c r="V57">
+        <v>139</v>
+      </c>
+      <c r="W57">
+        <v>210</v>
+      </c>
       <c r="Z57" s="3">
         <v>8.8000000000000007</v>
       </c>
@@ -6667,6 +7480,18 @@
       </c>
       <c r="J58">
         <v>1000</v>
+      </c>
+      <c r="R58">
+        <v>55</v>
+      </c>
+      <c r="S58">
+        <v>75</v>
+      </c>
+      <c r="U58">
+        <v>91</v>
+      </c>
+      <c r="V58">
+        <v>139</v>
       </c>
       <c r="W58">
         <v>210</v>
@@ -6735,6 +7560,21 @@
       </c>
       <c r="J59">
         <v>1000</v>
+      </c>
+      <c r="R59">
+        <v>55</v>
+      </c>
+      <c r="S59">
+        <v>73</v>
+      </c>
+      <c r="U59">
+        <v>111</v>
+      </c>
+      <c r="V59">
+        <v>159</v>
+      </c>
+      <c r="W59">
+        <v>210</v>
       </c>
       <c r="AU59"/>
       <c r="AV59"/>
@@ -6774,6 +7614,21 @@
       <c r="J60">
         <v>1000</v>
       </c>
+      <c r="R60">
+        <v>55</v>
+      </c>
+      <c r="S60">
+        <v>73</v>
+      </c>
+      <c r="U60">
+        <v>111</v>
+      </c>
+      <c r="V60">
+        <v>159</v>
+      </c>
+      <c r="W60">
+        <v>210</v>
+      </c>
       <c r="AU60"/>
       <c r="AV60"/>
       <c r="AW60"/>
@@ -6890,6 +7745,21 @@
       <c r="J61">
         <v>1000</v>
       </c>
+      <c r="R61">
+        <v>55</v>
+      </c>
+      <c r="S61">
+        <v>73</v>
+      </c>
+      <c r="U61">
+        <v>111</v>
+      </c>
+      <c r="V61">
+        <v>159</v>
+      </c>
+      <c r="W61">
+        <v>210</v>
+      </c>
       <c r="AU61"/>
       <c r="AV61"/>
       <c r="AW61"/>
@@ -7006,6 +7876,21 @@
       <c r="J62">
         <v>1000</v>
       </c>
+      <c r="R62">
+        <v>55</v>
+      </c>
+      <c r="S62">
+        <v>73</v>
+      </c>
+      <c r="U62">
+        <v>111</v>
+      </c>
+      <c r="V62">
+        <v>159</v>
+      </c>
+      <c r="W62">
+        <v>210</v>
+      </c>
       <c r="AU62"/>
       <c r="AV62"/>
       <c r="AW62"/>
@@ -7127,6 +8012,21 @@
       </c>
       <c r="N63" s="1">
         <v>9.6</v>
+      </c>
+      <c r="R63">
+        <v>55</v>
+      </c>
+      <c r="S63">
+        <v>73</v>
+      </c>
+      <c r="U63">
+        <v>111</v>
+      </c>
+      <c r="V63">
+        <v>159</v>
+      </c>
+      <c r="W63">
+        <v>210</v>
       </c>
       <c r="AU63"/>
       <c r="AV63"/>
@@ -7175,6 +8075,18 @@
       <c r="R64">
         <v>55</v>
       </c>
+      <c r="S64">
+        <v>73</v>
+      </c>
+      <c r="U64">
+        <v>111</v>
+      </c>
+      <c r="V64">
+        <v>159</v>
+      </c>
+      <c r="W64">
+        <v>210</v>
+      </c>
       <c r="AU64"/>
       <c r="AV64"/>
       <c r="AW64"/>
@@ -7219,6 +8131,21 @@
       <c r="N65" s="1">
         <v>11.574999999999999</v>
       </c>
+      <c r="R65">
+        <v>55</v>
+      </c>
+      <c r="S65">
+        <v>73</v>
+      </c>
+      <c r="U65">
+        <v>111</v>
+      </c>
+      <c r="V65">
+        <v>159</v>
+      </c>
+      <c r="W65">
+        <v>210</v>
+      </c>
       <c r="AU65"/>
       <c r="AV65"/>
       <c r="AW65"/>
@@ -7257,6 +8184,21 @@
       <c r="J66">
         <v>1000</v>
       </c>
+      <c r="R66">
+        <v>55</v>
+      </c>
+      <c r="S66">
+        <v>73</v>
+      </c>
+      <c r="U66">
+        <v>111</v>
+      </c>
+      <c r="V66">
+        <v>159</v>
+      </c>
+      <c r="W66">
+        <v>210</v>
+      </c>
       <c r="AU66"/>
       <c r="AV66"/>
       <c r="AW66"/>
@@ -7378,6 +8320,21 @@
       </c>
       <c r="N67" s="1">
         <v>13.1</v>
+      </c>
+      <c r="R67">
+        <v>55</v>
+      </c>
+      <c r="S67">
+        <v>73</v>
+      </c>
+      <c r="U67">
+        <v>111</v>
+      </c>
+      <c r="V67">
+        <v>159</v>
+      </c>
+      <c r="W67">
+        <v>210</v>
       </c>
       <c r="AU67"/>
       <c r="AV67"/>
@@ -7501,6 +8458,21 @@
       <c r="J68">
         <v>1000</v>
       </c>
+      <c r="R68">
+        <v>55</v>
+      </c>
+      <c r="S68">
+        <v>73</v>
+      </c>
+      <c r="U68">
+        <v>111</v>
+      </c>
+      <c r="V68">
+        <v>159</v>
+      </c>
+      <c r="W68">
+        <v>210</v>
+      </c>
       <c r="AU68"/>
       <c r="AV68"/>
       <c r="AW68"/>
@@ -7622,6 +8594,21 @@
       </c>
       <c r="N69" s="1">
         <v>15.282051282051283</v>
+      </c>
+      <c r="R69">
+        <v>55</v>
+      </c>
+      <c r="S69">
+        <v>73</v>
+      </c>
+      <c r="U69">
+        <v>111</v>
+      </c>
+      <c r="V69">
+        <v>159</v>
+      </c>
+      <c r="W69">
+        <v>210</v>
       </c>
       <c r="AU69"/>
       <c r="AV69"/>
@@ -7661,6 +8648,21 @@
       <c r="J70">
         <v>1000</v>
       </c>
+      <c r="R70">
+        <v>55</v>
+      </c>
+      <c r="S70">
+        <v>73</v>
+      </c>
+      <c r="U70">
+        <v>111</v>
+      </c>
+      <c r="V70">
+        <v>159</v>
+      </c>
+      <c r="W70">
+        <v>210</v>
+      </c>
       <c r="AU70"/>
       <c r="AV70"/>
       <c r="AW70"/>
@@ -7783,8 +8785,20 @@
       <c r="J71">
         <v>1000</v>
       </c>
+      <c r="R71">
+        <v>55</v>
+      </c>
       <c r="S71">
         <v>73</v>
+      </c>
+      <c r="U71">
+        <v>111</v>
+      </c>
+      <c r="V71">
+        <v>159</v>
+      </c>
+      <c r="W71">
+        <v>210</v>
       </c>
       <c r="AU71"/>
       <c r="AV71"/>
@@ -7829,6 +8843,21 @@
       </c>
       <c r="N72" s="1">
         <v>17.175000000000001</v>
+      </c>
+      <c r="R72">
+        <v>55</v>
+      </c>
+      <c r="S72">
+        <v>73</v>
+      </c>
+      <c r="U72">
+        <v>111</v>
+      </c>
+      <c r="V72">
+        <v>159</v>
+      </c>
+      <c r="W72">
+        <v>210</v>
       </c>
       <c r="AU72"/>
       <c r="AV72"/>
@@ -7958,6 +8987,21 @@
       <c r="N73" s="1">
         <v>18.615384615384617</v>
       </c>
+      <c r="R73">
+        <v>55</v>
+      </c>
+      <c r="S73">
+        <v>73</v>
+      </c>
+      <c r="U73">
+        <v>111</v>
+      </c>
+      <c r="V73">
+        <v>159</v>
+      </c>
+      <c r="W73">
+        <v>210</v>
+      </c>
       <c r="Z73" s="3">
         <v>11.2</v>
       </c>
@@ -8059,6 +9103,21 @@
       </c>
       <c r="J74">
         <v>1000</v>
+      </c>
+      <c r="R74">
+        <v>55</v>
+      </c>
+      <c r="S74">
+        <v>73</v>
+      </c>
+      <c r="U74">
+        <v>111</v>
+      </c>
+      <c r="V74">
+        <v>159</v>
+      </c>
+      <c r="W74">
+        <v>210</v>
       </c>
       <c r="AU74" s="1"/>
       <c r="AV74"/>
@@ -8176,6 +9235,21 @@
       <c r="J75">
         <v>1000</v>
       </c>
+      <c r="R75">
+        <v>55</v>
+      </c>
+      <c r="S75">
+        <v>73</v>
+      </c>
+      <c r="U75">
+        <v>111</v>
+      </c>
+      <c r="V75">
+        <v>159</v>
+      </c>
+      <c r="W75">
+        <v>210</v>
+      </c>
       <c r="AU75" s="1"/>
       <c r="AV75"/>
       <c r="AW75"/>
@@ -8297,6 +9371,21 @@
       </c>
       <c r="N76" s="1">
         <v>20.475000000000001</v>
+      </c>
+      <c r="R76">
+        <v>55</v>
+      </c>
+      <c r="S76">
+        <v>73</v>
+      </c>
+      <c r="U76">
+        <v>111</v>
+      </c>
+      <c r="V76">
+        <v>159</v>
+      </c>
+      <c r="W76">
+        <v>210</v>
       </c>
       <c r="AU76" s="1"/>
       <c r="AV76"/>
@@ -8426,6 +9515,21 @@
       <c r="N77" s="1">
         <v>21.974358974358974</v>
       </c>
+      <c r="R77">
+        <v>55</v>
+      </c>
+      <c r="S77">
+        <v>73</v>
+      </c>
+      <c r="U77">
+        <v>111</v>
+      </c>
+      <c r="V77">
+        <v>159</v>
+      </c>
+      <c r="W77">
+        <v>210</v>
+      </c>
       <c r="AU77" s="1"/>
       <c r="AV77"/>
       <c r="AW77"/>
@@ -8464,6 +9568,21 @@
       <c r="J78">
         <v>1000</v>
       </c>
+      <c r="R78">
+        <v>55</v>
+      </c>
+      <c r="S78">
+        <v>73</v>
+      </c>
+      <c r="U78">
+        <v>111</v>
+      </c>
+      <c r="V78">
+        <v>159</v>
+      </c>
+      <c r="W78">
+        <v>210</v>
+      </c>
       <c r="AU78" s="1"/>
       <c r="AV78"/>
       <c r="AW78"/>
@@ -8585,6 +9704,21 @@
       </c>
       <c r="N79" s="1">
         <v>23.076923076923077</v>
+      </c>
+      <c r="R79">
+        <v>55</v>
+      </c>
+      <c r="S79">
+        <v>73</v>
+      </c>
+      <c r="U79">
+        <v>111</v>
+      </c>
+      <c r="V79">
+        <v>159</v>
+      </c>
+      <c r="W79">
+        <v>210</v>
       </c>
       <c r="AU79" s="1"/>
       <c r="AV79"/>
@@ -8630,6 +9764,21 @@
       <c r="N80" s="1">
         <v>23.564102564102566</v>
       </c>
+      <c r="R80">
+        <v>55</v>
+      </c>
+      <c r="S80">
+        <v>73</v>
+      </c>
+      <c r="U80">
+        <v>111</v>
+      </c>
+      <c r="V80">
+        <v>159</v>
+      </c>
+      <c r="W80">
+        <v>210</v>
+      </c>
       <c r="AU80" s="1"/>
       <c r="AV80"/>
       <c r="AW80"/>
@@ -8676,8 +9825,20 @@
       </c>
       <c r="M81" s="1"/>
       <c r="N81" s="1"/>
+      <c r="R81">
+        <v>55</v>
+      </c>
+      <c r="S81">
+        <v>73</v>
+      </c>
       <c r="U81">
         <v>111</v>
+      </c>
+      <c r="V81">
+        <v>159</v>
+      </c>
+      <c r="W81">
+        <v>210</v>
       </c>
       <c r="AU81" s="1"/>
       <c r="AV81"/>
@@ -8722,6 +9883,21 @@
       </c>
       <c r="N82" s="1">
         <v>23.846153846153847</v>
+      </c>
+      <c r="R82">
+        <v>55</v>
+      </c>
+      <c r="S82">
+        <v>73</v>
+      </c>
+      <c r="U82">
+        <v>111</v>
+      </c>
+      <c r="V82">
+        <v>159</v>
+      </c>
+      <c r="W82">
+        <v>210</v>
       </c>
       <c r="AU82" s="1"/>
       <c r="AV82"/>
@@ -8845,6 +10021,21 @@
       <c r="J83">
         <v>1000</v>
       </c>
+      <c r="R83">
+        <v>55</v>
+      </c>
+      <c r="S83">
+        <v>73</v>
+      </c>
+      <c r="U83">
+        <v>111</v>
+      </c>
+      <c r="V83">
+        <v>159</v>
+      </c>
+      <c r="W83">
+        <v>210</v>
+      </c>
       <c r="AU83" s="1"/>
       <c r="AV83"/>
       <c r="AW83"/>
@@ -8967,6 +10158,21 @@
       <c r="N84" s="3">
         <v>22.75</v>
       </c>
+      <c r="R84">
+        <v>55</v>
+      </c>
+      <c r="S84">
+        <v>73</v>
+      </c>
+      <c r="U84">
+        <v>111</v>
+      </c>
+      <c r="V84">
+        <v>159</v>
+      </c>
+      <c r="W84">
+        <v>210</v>
+      </c>
       <c r="Z84" s="3">
         <v>8.9</v>
       </c>
@@ -9082,8 +10288,20 @@
       <c r="N85" s="3">
         <v>27.35</v>
       </c>
+      <c r="R85">
+        <v>55</v>
+      </c>
+      <c r="S85">
+        <v>73</v>
+      </c>
+      <c r="U85">
+        <v>111</v>
+      </c>
       <c r="V85">
         <v>159</v>
+      </c>
+      <c r="W85">
+        <v>210</v>
       </c>
       <c r="Z85" s="3">
         <v>8.8000000000000007</v>
@@ -9186,6 +10404,18 @@
       </c>
       <c r="J86">
         <v>1000</v>
+      </c>
+      <c r="R86">
+        <v>55</v>
+      </c>
+      <c r="S86">
+        <v>73</v>
+      </c>
+      <c r="U86">
+        <v>111</v>
+      </c>
+      <c r="V86">
+        <v>159</v>
       </c>
       <c r="W86">
         <v>210</v>

--- a/Tests/UnderReview/Cotton/Observed/Narrabri23.xlsx
+++ b/Tests/UnderReview/Cotton/Observed/Narrabri23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Repos\ApsimX\Tests\UnderReview\Cotton\Observed\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\git\ApsimX\Tests\UnderReview\Cotton\Observed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0528BD73-90D2-4FAA-9C45-61A25023081B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D2D8AB7-EB94-436C-A2E3-22AA4228FDB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28690" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{2CD5F283-94FE-4198-B98E-779709417693}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2CD5F283-94FE-4198-B98E-779709417693}"/>
   </bookViews>
   <sheets>
     <sheet name="CottonObserved" sheetId="1" r:id="rId1"/>
@@ -347,9 +347,6 @@
     <t>dw_OB</t>
   </si>
   <si>
-    <t>Cotton.Fruit.Nconc</t>
-  </si>
-  <si>
     <t>Cotton.Lint.Wt</t>
   </si>
   <si>
@@ -582,6 +579,9 @@
   </si>
   <si>
     <t>Cotton.Leaf.SpecificAreaCanopy</t>
+  </si>
+  <si>
+    <t>Cotton.Fruit.NConc</t>
   </si>
 </sst>
 </file>
@@ -991,166 +991,164 @@
   <dimension ref="A1:FJ293"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="AH2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="BA2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AQ2" sqref="AQ2"/>
+      <selection pane="bottomRight" activeCell="BH6" sqref="BH6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="39.59765625" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="39.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.73046875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.86328125" customWidth="1"/>
-    <col min="3" max="3" width="13.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.1328125" customWidth="1"/>
-    <col min="5" max="5" width="37.59765625" customWidth="1"/>
-    <col min="6" max="6" width="13.265625" customWidth="1"/>
-    <col min="7" max="7" width="35.73046875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.3984375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="31.1328125" customWidth="1"/>
+    <col min="1" max="1" width="39.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.85546875" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1"/>
+    <col min="5" max="5" width="37.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+    <col min="7" max="7" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="31.140625" customWidth="1"/>
     <col min="10" max="10" width="32" customWidth="1"/>
-    <col min="11" max="11" width="19.1328125" customWidth="1"/>
-    <col min="12" max="13" width="20.265625" customWidth="1"/>
-    <col min="14" max="14" width="26.73046875" customWidth="1"/>
-    <col min="15" max="15" width="21.73046875" customWidth="1"/>
-    <col min="16" max="16" width="18.73046875" customWidth="1"/>
+    <col min="11" max="11" width="19.140625" customWidth="1"/>
+    <col min="12" max="13" width="20.28515625" customWidth="1"/>
+    <col min="14" max="14" width="26.7109375" customWidth="1"/>
+    <col min="15" max="15" width="21.7109375" customWidth="1"/>
+    <col min="16" max="16" width="18.7109375" customWidth="1"/>
     <col min="17" max="17" width="34" customWidth="1"/>
-    <col min="18" max="18" width="31.73046875" customWidth="1"/>
+    <col min="18" max="18" width="31.7109375" customWidth="1"/>
     <col min="19" max="19" width="33" customWidth="1"/>
     <col min="20" max="20" width="30" customWidth="1"/>
-    <col min="21" max="21" width="33.265625" customWidth="1"/>
-    <col min="22" max="22" width="31.59765625" customWidth="1"/>
-    <col min="23" max="23" width="34.86328125" customWidth="1"/>
-    <col min="24" max="24" width="13.3984375" customWidth="1"/>
-    <col min="25" max="25" width="16.3984375" customWidth="1"/>
-    <col min="26" max="26" width="15.3984375" customWidth="1"/>
-    <col min="27" max="27" width="14.86328125" customWidth="1"/>
-    <col min="28" max="28" width="17.86328125" customWidth="1"/>
-    <col min="29" max="29" width="17.73046875" customWidth="1"/>
+    <col min="21" max="21" width="33.28515625" customWidth="1"/>
+    <col min="22" max="22" width="31.5703125" customWidth="1"/>
+    <col min="23" max="23" width="34.85546875" customWidth="1"/>
+    <col min="24" max="24" width="13.42578125" customWidth="1"/>
+    <col min="25" max="25" width="16.42578125" customWidth="1"/>
+    <col min="26" max="26" width="15.42578125" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" customWidth="1"/>
+    <col min="28" max="28" width="17.85546875" customWidth="1"/>
+    <col min="29" max="29" width="17.7109375" customWidth="1"/>
     <col min="30" max="30" width="21" customWidth="1"/>
-    <col min="31" max="31" width="16.59765625" customWidth="1"/>
-    <col min="32" max="32" width="29.3984375" customWidth="1"/>
-    <col min="33" max="33" width="33.86328125" customWidth="1"/>
-    <col min="34" max="34" width="33.59765625" customWidth="1"/>
+    <col min="31" max="31" width="16.5703125" customWidth="1"/>
+    <col min="32" max="32" width="29.42578125" customWidth="1"/>
+    <col min="33" max="33" width="33.85546875" customWidth="1"/>
+    <col min="34" max="34" width="33.5703125" customWidth="1"/>
     <col min="35" max="35" width="38" customWidth="1"/>
-    <col min="36" max="36" width="21.1328125" customWidth="1"/>
+    <col min="36" max="36" width="21.140625" customWidth="1"/>
     <col min="37" max="37" width="17" customWidth="1"/>
-    <col min="38" max="38" width="21.3984375" customWidth="1"/>
-    <col min="39" max="39" width="25.1328125" customWidth="1"/>
-    <col min="40" max="40" width="29.59765625" customWidth="1"/>
-    <col min="41" max="41" width="26.265625" customWidth="1"/>
+    <col min="38" max="38" width="21.42578125" customWidth="1"/>
+    <col min="39" max="39" width="25.140625" customWidth="1"/>
+    <col min="40" max="40" width="29.5703125" customWidth="1"/>
+    <col min="41" max="41" width="26.28515625" customWidth="1"/>
     <col min="42" max="42" width="24" customWidth="1"/>
-    <col min="43" max="43" width="25.59765625" bestFit="1" customWidth="1"/>
-    <col min="44" max="44" width="24.3984375" bestFit="1" customWidth="1"/>
-    <col min="45" max="45" width="15.73046875" bestFit="1" customWidth="1"/>
-    <col min="46" max="46" width="17.59765625" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="25.5703125" bestFit="1" customWidth="1"/>
+    <col min="44" max="44" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="17.5703125" bestFit="1" customWidth="1"/>
     <col min="47" max="48" width="12" style="12" bestFit="1" customWidth="1"/>
-    <col min="49" max="49" width="7.73046875" style="12" bestFit="1" customWidth="1"/>
-    <col min="50" max="50" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="7.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="51" max="51" width="12" style="12" bestFit="1" customWidth="1"/>
     <col min="52" max="52" width="12" style="12" customWidth="1"/>
-    <col min="53" max="53" width="7.73046875" style="12" bestFit="1" customWidth="1"/>
-    <col min="54" max="54" width="10.73046875" style="12" bestFit="1" customWidth="1"/>
-    <col min="55" max="55" width="12.59765625" style="12" bestFit="1" customWidth="1"/>
-    <col min="56" max="56" width="7.73046875" style="12" customWidth="1"/>
-    <col min="57" max="57" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="58" max="58" width="10.73046875" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="7.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="10.7109375" style="12" bestFit="1" customWidth="1"/>
+    <col min="55" max="55" width="12.5703125" style="12" bestFit="1" customWidth="1"/>
+    <col min="56" max="56" width="7.7109375" style="12" customWidth="1"/>
+    <col min="57" max="57" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="59" max="59" width="12" bestFit="1" customWidth="1"/>
-    <col min="60" max="60" width="17.265625" bestFit="1" customWidth="1"/>
-    <col min="61" max="61" width="20.265625" bestFit="1" customWidth="1"/>
-    <col min="62" max="62" width="16.1328125" bestFit="1" customWidth="1"/>
-    <col min="63" max="63" width="25.73046875" bestFit="1" customWidth="1"/>
-    <col min="64" max="64" width="24.59765625" bestFit="1" customWidth="1"/>
-    <col min="65" max="65" width="26.73046875" bestFit="1" customWidth="1"/>
-    <col min="66" max="66" width="26.73046875" customWidth="1"/>
-    <col min="67" max="67" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="68" max="68" width="16.73046875" bestFit="1" customWidth="1"/>
-    <col min="69" max="69" width="17.59765625" bestFit="1" customWidth="1"/>
-    <col min="70" max="70" width="20.86328125" bestFit="1" customWidth="1"/>
-    <col min="71" max="71" width="16.3984375" bestFit="1" customWidth="1"/>
-    <col min="72" max="72" width="13.3984375" bestFit="1" customWidth="1"/>
-    <col min="73" max="73" width="6.73046875" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="62" max="62" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="64" max="64" width="24.5703125" bestFit="1" customWidth="1"/>
+    <col min="65" max="65" width="26.7109375" bestFit="1" customWidth="1"/>
+    <col min="66" max="66" width="26.7109375" customWidth="1"/>
+    <col min="67" max="67" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="68" max="68" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="69" max="69" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="70" max="70" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="71" max="71" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="72" max="72" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="73" max="73" width="6.7109375" bestFit="1" customWidth="1"/>
     <col min="74" max="74" width="12" bestFit="1" customWidth="1"/>
-    <col min="75" max="75" width="16.265625" bestFit="1" customWidth="1"/>
-    <col min="76" max="76" width="32.3984375" bestFit="1" customWidth="1"/>
-    <col min="77" max="77" width="31.3984375" bestFit="1" customWidth="1"/>
+    <col min="75" max="75" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="76" max="76" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="77" max="77" width="31.42578125" bestFit="1" customWidth="1"/>
     <col min="78" max="78" width="32" bestFit="1" customWidth="1"/>
-    <col min="79" max="79" width="14.1328125" bestFit="1" customWidth="1"/>
+    <col min="79" max="79" width="14.140625" bestFit="1" customWidth="1"/>
     <col min="80" max="80" width="9" bestFit="1" customWidth="1"/>
-    <col min="81" max="81" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="82" max="82" width="8.73046875" bestFit="1" customWidth="1"/>
+    <col min="81" max="81" width="7.5703125" bestFit="1" customWidth="1"/>
+    <col min="82" max="82" width="8.7109375" bestFit="1" customWidth="1"/>
     <col min="83" max="83" width="10" bestFit="1" customWidth="1"/>
-    <col min="84" max="84" width="7.1328125" bestFit="1" customWidth="1"/>
-    <col min="85" max="85" width="6.265625" bestFit="1" customWidth="1"/>
-    <col min="86" max="86" width="15.1328125" bestFit="1" customWidth="1"/>
+    <col min="84" max="84" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="85" max="85" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="86" max="86" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="87" max="87" width="12" bestFit="1" customWidth="1"/>
-    <col min="88" max="88" width="11.265625" bestFit="1" customWidth="1"/>
-    <col min="89" max="89" width="10.265625" bestFit="1" customWidth="1"/>
-    <col min="90" max="90" width="10.59765625" bestFit="1" customWidth="1"/>
+    <col min="88" max="88" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="89" max="89" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="90" max="90" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="91" max="91" width="12" bestFit="1" customWidth="1"/>
-    <col min="92" max="92" width="11.73046875" bestFit="1" customWidth="1"/>
-    <col min="93" max="93" width="16.73046875" bestFit="1" customWidth="1"/>
-    <col min="94" max="95" width="13.59765625" bestFit="1" customWidth="1"/>
+    <col min="92" max="92" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="93" max="93" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="94" max="95" width="13.5703125" bestFit="1" customWidth="1"/>
     <col min="96" max="96" width="22" bestFit="1" customWidth="1"/>
-    <col min="97" max="97" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="98" max="98" width="21.9296875" bestFit="1" customWidth="1"/>
-    <col min="99" max="99" width="22" bestFit="1" customWidth="1"/>
-    <col min="100" max="100" width="11.1328125" bestFit="1" customWidth="1"/>
-    <col min="101" max="101" width="21.9296875" bestFit="1" customWidth="1"/>
-    <col min="102" max="102" width="22" bestFit="1" customWidth="1"/>
-    <col min="103" max="103" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="97" max="97" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="98" max="99" width="22" bestFit="1" customWidth="1"/>
+    <col min="100" max="100" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="101" max="102" width="22" bestFit="1" customWidth="1"/>
+    <col min="103" max="103" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="104" max="104" width="12" bestFit="1" customWidth="1"/>
     <col min="105" max="105" width="22" bestFit="1" customWidth="1"/>
-    <col min="106" max="106" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="106" max="106" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="107" max="107" width="12" bestFit="1" customWidth="1"/>
     <col min="108" max="108" width="22" bestFit="1" customWidth="1"/>
-    <col min="109" max="109" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="109" max="109" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="110" max="110" width="12" bestFit="1" customWidth="1"/>
     <col min="111" max="111" width="22" bestFit="1" customWidth="1"/>
-    <col min="112" max="112" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="112" max="112" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="113" max="113" width="12" bestFit="1" customWidth="1"/>
     <col min="114" max="114" width="22" bestFit="1" customWidth="1"/>
-    <col min="115" max="115" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="115" max="115" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="116" max="116" width="12" bestFit="1" customWidth="1"/>
     <col min="117" max="117" width="22" bestFit="1" customWidth="1"/>
-    <col min="118" max="118" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="118" max="118" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="119" max="119" width="12" bestFit="1" customWidth="1"/>
     <col min="120" max="120" width="22" bestFit="1" customWidth="1"/>
-    <col min="121" max="121" width="11.1328125" bestFit="1" customWidth="1"/>
+    <col min="121" max="121" width="11.140625" bestFit="1" customWidth="1"/>
     <col min="122" max="122" width="12" bestFit="1" customWidth="1"/>
     <col min="123" max="123" width="23" bestFit="1" customWidth="1"/>
-    <col min="124" max="124" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="124" max="124" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="125" max="125" width="13" bestFit="1" customWidth="1"/>
     <col min="126" max="126" width="23" bestFit="1" customWidth="1"/>
-    <col min="127" max="127" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="127" max="127" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="128" max="128" width="13" bestFit="1" customWidth="1"/>
     <col min="129" max="129" width="23" bestFit="1" customWidth="1"/>
-    <col min="130" max="130" width="12.1328125" bestFit="1" customWidth="1"/>
+    <col min="130" max="130" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="131" max="131" width="13" bestFit="1" customWidth="1"/>
-    <col min="132" max="132" width="7.1328125" bestFit="1" customWidth="1"/>
-    <col min="133" max="133" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="134" max="134" width="18.265625" bestFit="1" customWidth="1"/>
-    <col min="135" max="135" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="136" max="136" width="18.265625" bestFit="1" customWidth="1"/>
-    <col min="137" max="137" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="138" max="138" width="18.265625" bestFit="1" customWidth="1"/>
-    <col min="139" max="139" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="140" max="140" width="18.265625" bestFit="1" customWidth="1"/>
-    <col min="141" max="141" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="142" max="142" width="18.265625" bestFit="1" customWidth="1"/>
-    <col min="143" max="143" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="144" max="144" width="18.265625" bestFit="1" customWidth="1"/>
-    <col min="145" max="145" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="146" max="146" width="18.265625" bestFit="1" customWidth="1"/>
-    <col min="147" max="147" width="18.1328125" bestFit="1" customWidth="1"/>
-    <col min="148" max="148" width="18.265625" bestFit="1" customWidth="1"/>
+    <col min="132" max="132" width="7.140625" bestFit="1" customWidth="1"/>
+    <col min="133" max="133" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="134" max="134" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="135" max="135" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="136" max="136" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="137" max="137" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="138" max="138" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="139" max="139" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="140" max="140" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="141" max="141" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="142" max="142" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="143" max="143" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="144" max="144" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="145" max="145" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="146" max="146" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="147" max="147" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="148" max="148" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="149" max="149" width="7" bestFit="1" customWidth="1"/>
     <col min="150" max="157" width="18" bestFit="1" customWidth="1"/>
-    <col min="158" max="158" width="5.86328125" bestFit="1" customWidth="1"/>
-    <col min="159" max="166" width="23.3984375" bestFit="1" customWidth="1"/>
+    <col min="158" max="158" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="159" max="166" width="23.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1194,10 +1192,10 @@
         <v>64</v>
       </c>
       <c r="O1" t="s">
+        <v>122</v>
+      </c>
+      <c r="P1" t="s">
         <v>123</v>
-      </c>
-      <c r="P1" t="s">
-        <v>124</v>
       </c>
       <c r="Q1" t="s">
         <v>54</v>
@@ -1218,7 +1216,7 @@
         <v>56</v>
       </c>
       <c r="W1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="X1" t="s">
         <v>16</v>
@@ -1245,16 +1243,16 @@
         <v>72</v>
       </c>
       <c r="AF1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AH1" t="s">
         <v>134</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AI1" t="s">
         <v>136</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>137</v>
       </c>
       <c r="AJ1" t="s">
         <v>59</v>
@@ -1263,22 +1261,22 @@
         <v>61</v>
       </c>
       <c r="AL1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AM1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AN1" t="s">
         <v>131</v>
       </c>
-      <c r="AN1" t="s">
-        <v>132</v>
-      </c>
       <c r="AO1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AP1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AQ1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="AR1" t="s">
         <v>60</v>
@@ -1287,16 +1285,16 @@
         <v>73</v>
       </c>
       <c r="AT1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AU1" s="12" t="s">
         <v>97</v>
       </c>
       <c r="AV1" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="AW1" s="12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AX1" t="s">
         <v>98</v>
@@ -1305,19 +1303,19 @@
         <v>99</v>
       </c>
       <c r="AZ1" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="BA1" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="BB1" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="BB1" s="12" t="s">
-        <v>150</v>
-      </c>
       <c r="BC1" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="BD1" s="12" t="s">
         <v>177</v>
-      </c>
-      <c r="BD1" s="12" t="s">
-        <v>178</v>
       </c>
       <c r="BE1" t="s">
         <v>100</v>
@@ -1329,61 +1327,61 @@
         <v>102</v>
       </c>
       <c r="BH1" t="s">
+        <v>178</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>181</v>
+      </c>
+      <c r="BJ1" t="s">
         <v>179</v>
-      </c>
-      <c r="BI1" t="s">
-        <v>103</v>
-      </c>
-      <c r="BJ1" t="s">
-        <v>180</v>
       </c>
       <c r="BK1" t="s">
         <v>62</v>
       </c>
       <c r="BL1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="BM1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="BN1" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="BO1" t="s">
         <v>9</v>
       </c>
       <c r="BP1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="BQ1" t="s">
+        <v>124</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>151</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>150</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>105</v>
+      </c>
+      <c r="BU1" t="s">
         <v>125</v>
       </c>
-      <c r="BR1" t="s">
-        <v>152</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>151</v>
-      </c>
-      <c r="BT1" t="s">
+      <c r="BV1" t="s">
+        <v>126</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>111</v>
+      </c>
+      <c r="BX1" t="s">
         <v>106</v>
       </c>
-      <c r="BU1" t="s">
-        <v>126</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>127</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>112</v>
-      </c>
-      <c r="BX1" t="s">
+      <c r="BY1" t="s">
         <v>107</v>
       </c>
-      <c r="BY1" t="s">
+      <c r="BZ1" t="s">
         <v>108</v>
-      </c>
-      <c r="BZ1" t="s">
-        <v>109</v>
       </c>
       <c r="CA1" t="s">
         <v>71</v>
@@ -1407,7 +1405,7 @@
         <v>8</v>
       </c>
       <c r="CH1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="CI1" t="s">
         <v>50</v>
@@ -1428,97 +1426,97 @@
         <v>67</v>
       </c>
       <c r="CO1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="CP1" t="s">
         <v>87</v>
       </c>
       <c r="CQ1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="CR1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="CS1" t="s">
         <v>74</v>
       </c>
       <c r="CT1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="CU1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="CV1" t="s">
         <v>75</v>
       </c>
       <c r="CW1" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="CX1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="CY1" t="s">
         <v>83</v>
       </c>
       <c r="CZ1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="DA1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="DB1" t="s">
         <v>82</v>
       </c>
       <c r="DC1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="DD1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="DE1" t="s">
         <v>81</v>
       </c>
       <c r="DF1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="DG1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="DH1" t="s">
         <v>92</v>
       </c>
       <c r="DI1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="DJ1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="DK1" t="s">
         <v>93</v>
       </c>
       <c r="DL1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="DM1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="DN1" t="s">
         <v>80</v>
       </c>
       <c r="DO1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="DP1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="DQ1" t="s">
         <v>79</v>
       </c>
       <c r="DR1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="DS1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="DT1" t="s">
         <v>78</v>
@@ -1527,7 +1525,7 @@
         <v>84</v>
       </c>
       <c r="DV1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="DW1" t="s">
         <v>77</v>
@@ -1536,7 +1534,7 @@
         <v>85</v>
       </c>
       <c r="DY1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="DZ1" t="s">
         <v>76</v>
@@ -1551,49 +1549,49 @@
         <v>21</v>
       </c>
       <c r="ED1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="EE1" t="s">
         <v>22</v>
       </c>
       <c r="EF1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="EG1" t="s">
         <v>23</v>
       </c>
       <c r="EH1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="EI1" t="s">
         <v>24</v>
       </c>
       <c r="EJ1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="EK1" t="s">
         <v>25</v>
       </c>
       <c r="EL1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="EM1" t="s">
         <v>26</v>
       </c>
       <c r="EN1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="EO1" t="s">
         <v>27</v>
       </c>
       <c r="EP1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="EQ1" t="s">
         <v>28</v>
       </c>
       <c r="ER1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="ES1" t="s">
         <v>46</v>
@@ -1650,9 +1648,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1661,7 +1659,7 @@
         <v>45211</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -1694,9 +1692,9 @@
       <c r="CE2" s="1"/>
       <c r="CF2" s="1"/>
     </row>
-    <row r="3" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1810,9 +1808,9 @@
         <v>0.49495000000000006</v>
       </c>
     </row>
-    <row r="4" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1926,9 +1924,9 @@
         <v>0.49219000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2042,9 +2040,9 @@
         <v>0.49723000000000001</v>
       </c>
     </row>
-    <row r="6" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2086,9 +2084,9 @@
       <c r="CE6" s="1"/>
       <c r="CF6" s="1"/>
     </row>
-    <row r="7" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2097,7 +2095,7 @@
         <v>45266</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -2133,9 +2131,9 @@
       <c r="CE7" s="1"/>
       <c r="CF7" s="1"/>
     </row>
-    <row r="8" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2177,9 +2175,9 @@
       <c r="CE8" s="1"/>
       <c r="CF8" s="1"/>
     </row>
-    <row r="9" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2293,9 +2291,9 @@
         <v>0.49719999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -2421,9 +2419,9 @@
         <v>0.49763500000000005</v>
       </c>
     </row>
-    <row r="11" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2537,9 +2535,9 @@
         <v>0.511795</v>
       </c>
     </row>
-    <row r="12" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2581,9 +2579,9 @@
       <c r="CE12" s="1"/>
       <c r="CF12" s="1"/>
     </row>
-    <row r="13" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2697,9 +2695,9 @@
         <v>0.52081</v>
       </c>
     </row>
-    <row r="14" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2708,7 +2706,7 @@
         <v>45286</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
@@ -2744,9 +2742,9 @@
       <c r="CE14" s="1"/>
       <c r="CF14" s="1"/>
     </row>
-    <row r="15" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -2872,9 +2870,9 @@
         <v>0.52995999999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:166" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -2980,9 +2978,9 @@
       </c>
       <c r="CG16" s="1"/>
     </row>
-    <row r="17" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -3096,9 +3094,9 @@
         <v>0.52721499999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -3212,9 +3210,9 @@
         <v>0.523285</v>
       </c>
     </row>
-    <row r="19" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -3340,9 +3338,9 @@
         <v>0.52187500000000009</v>
       </c>
     </row>
-    <row r="20" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3384,9 +3382,9 @@
       <c r="CE20" s="1"/>
       <c r="CF20" s="1"/>
     </row>
-    <row r="21" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -3395,7 +3393,7 @@
         <v>45309</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F21" t="s">
         <v>51</v>
@@ -3431,9 +3429,9 @@
       <c r="CE21" s="1"/>
       <c r="CF21" s="1"/>
     </row>
-    <row r="22" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -3547,9 +3545,9 @@
         <v>0.52663000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -3591,9 +3589,9 @@
       <c r="CE23" s="1"/>
       <c r="CF23" s="1"/>
     </row>
-    <row r="24" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -3635,9 +3633,9 @@
       <c r="CE24" s="1"/>
       <c r="CF24" s="1"/>
     </row>
-    <row r="25" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -3763,9 +3761,9 @@
         <v>0.51960999999999991</v>
       </c>
     </row>
-    <row r="26" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -3879,9 +3877,9 @@
         <v>0.53228500000000012</v>
       </c>
     </row>
-    <row r="27" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -3980,9 +3978,9 @@
       </c>
       <c r="CG27" s="1"/>
     </row>
-    <row r="28" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -3991,7 +3989,7 @@
         <v>45355</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F28" t="s">
         <v>14</v>
@@ -4027,9 +4025,9 @@
       <c r="CE28" s="1"/>
       <c r="CF28" s="1"/>
     </row>
-    <row r="29" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -4129,9 +4127,9 @@
       </c>
       <c r="CG29" s="1"/>
     </row>
-    <row r="30" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -4140,7 +4138,7 @@
         <v>45415</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F30" t="s">
         <v>15</v>
@@ -4198,9 +4196,9 @@
       <c r="CE30" s="1"/>
       <c r="CF30" s="1"/>
     </row>
-    <row r="31" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -4209,7 +4207,7 @@
         <v>45211</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F31" t="s">
         <v>10</v>
@@ -4242,9 +4240,9 @@
       <c r="CE31" s="1"/>
       <c r="CF31" s="1"/>
     </row>
-    <row r="32" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -4358,9 +4356,9 @@
         <v>0.52112500000000006</v>
       </c>
     </row>
-    <row r="33" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -4474,9 +4472,9 @@
         <v>0.52320999999999995</v>
       </c>
     </row>
-    <row r="34" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -4590,9 +4588,9 @@
         <v>0.533605</v>
       </c>
     </row>
-    <row r="35" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -4634,9 +4632,9 @@
       <c r="CE35" s="1"/>
       <c r="CF35" s="1"/>
     </row>
-    <row r="36" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -4645,7 +4643,7 @@
         <v>45266</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F36" t="s">
         <v>12</v>
@@ -4681,9 +4679,9 @@
       <c r="CE36" s="1"/>
       <c r="CF36" s="1"/>
     </row>
-    <row r="37" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -4725,9 +4723,9 @@
       <c r="CE37" s="1"/>
       <c r="CF37" s="1"/>
     </row>
-    <row r="38" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -4841,9 +4839,9 @@
         <v>0.52922500000000006</v>
       </c>
     </row>
-    <row r="39" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -4969,9 +4967,9 @@
         <v>0.53084500000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -5085,9 +5083,9 @@
         <v>0.53815000000000002</v>
       </c>
     </row>
-    <row r="41" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -5129,9 +5127,9 @@
       <c r="CE41" s="1"/>
       <c r="CF41" s="1"/>
     </row>
-    <row r="42" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -5245,9 +5243,9 @@
         <v>0.55059999999999998</v>
       </c>
     </row>
-    <row r="43" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -5256,7 +5254,7 @@
         <v>45286</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F43" t="s">
         <v>13</v>
@@ -5292,9 +5290,9 @@
       <c r="CE43" s="1"/>
       <c r="CF43" s="1"/>
     </row>
-    <row r="44" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -5420,9 +5418,9 @@
         <v>0.55740999999999996</v>
       </c>
     </row>
-    <row r="45" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -5528,9 +5526,9 @@
       </c>
       <c r="CG45" s="1"/>
     </row>
-    <row r="46" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -5644,9 +5642,9 @@
         <v>0.54930999999999996</v>
       </c>
     </row>
-    <row r="47" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -5760,9 +5758,9 @@
         <v>0.5603499999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -5888,9 +5886,9 @@
         <v>0.55440999999999996</v>
       </c>
     </row>
-    <row r="49" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -5932,9 +5930,9 @@
       <c r="CE49" s="1"/>
       <c r="CF49" s="1"/>
     </row>
-    <row r="50" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B50">
         <v>3</v>
@@ -6048,9 +6046,9 @@
         <v>0.55025500000000005</v>
       </c>
     </row>
-    <row r="51" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -6059,7 +6057,7 @@
         <v>45312</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F51" t="s">
         <v>51</v>
@@ -6095,9 +6093,9 @@
       <c r="CE51" s="1"/>
       <c r="CF51" s="1"/>
     </row>
-    <row r="52" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B52">
         <v>3</v>
@@ -6139,9 +6137,9 @@
       <c r="CE52" s="1"/>
       <c r="CF52" s="1"/>
     </row>
-    <row r="53" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -6183,9 +6181,9 @@
       <c r="CE53" s="1"/>
       <c r="CF53" s="1"/>
     </row>
-    <row r="54" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B54">
         <v>3</v>
@@ -6311,9 +6309,9 @@
         <v>0.56011000000000011</v>
       </c>
     </row>
-    <row r="55" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B55">
         <v>3</v>
@@ -6427,9 +6425,9 @@
         <v>0.56333500000000003</v>
       </c>
     </row>
-    <row r="56" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B56">
         <v>3</v>
@@ -6528,9 +6526,9 @@
       </c>
       <c r="CG56" s="1"/>
     </row>
-    <row r="57" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B57">
         <v>3</v>
@@ -6539,7 +6537,7 @@
         <v>45351</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F57" t="s">
         <v>14</v>
@@ -6575,9 +6573,9 @@
       <c r="CE57" s="1"/>
       <c r="CF57" s="1"/>
     </row>
-    <row r="58" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B58">
         <v>3</v>
@@ -6677,9 +6675,9 @@
       </c>
       <c r="CG58" s="1"/>
     </row>
-    <row r="59" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B59">
         <v>3</v>
@@ -6688,7 +6686,7 @@
         <v>45415</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F59" t="s">
         <v>15</v>
@@ -6745,9 +6743,9 @@
       <c r="CE59" s="1"/>
       <c r="CF59" s="1"/>
     </row>
-    <row r="60" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B60">
         <v>5</v>
@@ -6756,7 +6754,7 @@
         <v>45211</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F60" t="s">
         <v>10</v>
@@ -6789,9 +6787,9 @@
       <c r="CE60" s="1"/>
       <c r="CF60" s="1"/>
     </row>
-    <row r="61" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B61">
         <v>5</v>
@@ -6905,9 +6903,9 @@
         <v>0.47271999999999997</v>
       </c>
     </row>
-    <row r="62" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B62">
         <v>5</v>
@@ -7021,9 +7019,9 @@
         <v>0.482875</v>
       </c>
     </row>
-    <row r="63" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B63">
         <v>5</v>
@@ -7137,9 +7135,9 @@
         <v>0.48832000000000003</v>
       </c>
     </row>
-    <row r="64" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B64">
         <v>5</v>
@@ -7181,9 +7179,9 @@
       <c r="CE64" s="1"/>
       <c r="CF64" s="1"/>
     </row>
-    <row r="65" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B65">
         <v>5</v>
@@ -7192,7 +7190,7 @@
         <v>45266</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F65" t="s">
         <v>12</v>
@@ -7228,9 +7226,9 @@
       <c r="CE65" s="1"/>
       <c r="CF65" s="1"/>
     </row>
-    <row r="66" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B66">
         <v>5</v>
@@ -7272,9 +7270,9 @@
       <c r="CE66" s="1"/>
       <c r="CF66" s="1"/>
     </row>
-    <row r="67" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B67">
         <v>5</v>
@@ -7388,9 +7386,9 @@
         <v>0.48542499999999994</v>
       </c>
     </row>
-    <row r="68" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B68">
         <v>5</v>
@@ -7516,9 +7514,9 @@
         <v>0.48974500000000004</v>
       </c>
     </row>
-    <row r="69" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B69">
         <v>5</v>
@@ -7632,9 +7630,9 @@
         <v>0.52728999999999993</v>
       </c>
     </row>
-    <row r="70" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B70">
         <v>5</v>
@@ -7676,9 +7674,9 @@
       <c r="CE70" s="1"/>
       <c r="CF70" s="1"/>
     </row>
-    <row r="71" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B71">
         <v>5</v>
@@ -7792,9 +7790,9 @@
         <v>0.53852500000000003</v>
       </c>
     </row>
-    <row r="72" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B72">
         <v>5</v>
@@ -7803,7 +7801,7 @@
         <v>45284</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F72" t="s">
         <v>13</v>
@@ -7839,9 +7837,9 @@
       <c r="CE72" s="1"/>
       <c r="CF72" s="1"/>
     </row>
-    <row r="73" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B73">
         <v>5</v>
@@ -7967,9 +7965,9 @@
         <v>0.54325000000000001</v>
       </c>
     </row>
-    <row r="74" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B74">
         <v>5</v>
@@ -8075,9 +8073,9 @@
       </c>
       <c r="CG74" s="1"/>
     </row>
-    <row r="75" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B75">
         <v>5</v>
@@ -8191,9 +8189,9 @@
         <v>0.53651500000000008</v>
       </c>
     </row>
-    <row r="76" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B76">
         <v>5</v>
@@ -8307,9 +8305,9 @@
         <v>0.53279500000000002</v>
       </c>
     </row>
-    <row r="77" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B77">
         <v>5</v>
@@ -8435,9 +8433,9 @@
         <v>0.53933500000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B78">
         <v>5</v>
@@ -8479,9 +8477,9 @@
       <c r="CE78" s="1"/>
       <c r="CF78" s="1"/>
     </row>
-    <row r="79" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B79">
         <v>5</v>
@@ -8595,9 +8593,9 @@
         <v>0.54604000000000008</v>
       </c>
     </row>
-    <row r="80" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B80">
         <v>5</v>
@@ -8639,9 +8637,9 @@
       <c r="CE80" s="1"/>
       <c r="CF80" s="1"/>
     </row>
-    <row r="81" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B81">
         <v>5</v>
@@ -8650,7 +8648,7 @@
         <v>45316</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="F81" t="s">
         <v>51</v>
@@ -8686,9 +8684,9 @@
       <c r="CE81" s="1"/>
       <c r="CF81" s="1"/>
     </row>
-    <row r="82" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B82">
         <v>5</v>
@@ -8730,9 +8728,9 @@
       <c r="CE82" s="1"/>
       <c r="CF82" s="1"/>
     </row>
-    <row r="83" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B83">
         <v>5</v>
@@ -8858,9 +8856,9 @@
         <v>0.53900499999999996</v>
       </c>
     </row>
-    <row r="84" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B84">
         <v>5</v>
@@ -8974,9 +8972,9 @@
         <v>0.54131499999999999</v>
       </c>
     </row>
-    <row r="85" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B85">
         <v>5</v>
@@ -9083,9 +9081,9 @@
       <c r="DC85" s="15"/>
       <c r="DD85" s="15"/>
     </row>
-    <row r="86" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B86">
         <v>5</v>
@@ -9094,7 +9092,7 @@
         <v>45370</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F86" t="s">
         <v>14</v>
@@ -9194,9 +9192,9 @@
       </c>
       <c r="CG86" s="1"/>
     </row>
-    <row r="87" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B87">
         <v>5</v>
@@ -9205,7 +9203,7 @@
         <v>45415</v>
       </c>
       <c r="E87" s="7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="F87" t="s">
         <v>15</v>
@@ -9256,7 +9254,7 @@
         <v>11.246643149902891</v>
       </c>
     </row>
-    <row r="88" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:122" x14ac:dyDescent="0.25">
       <c r="C88" s="9"/>
       <c r="I88" s="6"/>
       <c r="P88" s="4"/>
@@ -9285,7 +9283,7 @@
       <c r="CJ88" s="1"/>
       <c r="CO88" s="1"/>
     </row>
-    <row r="89" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:122" x14ac:dyDescent="0.25">
       <c r="C89" s="9"/>
       <c r="I89" s="6"/>
       <c r="M89" s="4"/>
@@ -9333,7 +9331,7 @@
       <c r="CD89" s="1"/>
       <c r="CJ89" s="1"/>
     </row>
-    <row r="90" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:122" x14ac:dyDescent="0.25">
       <c r="C90" s="9"/>
       <c r="I90" s="6"/>
       <c r="M90" s="4"/>
@@ -9381,7 +9379,7 @@
       <c r="CJ90" s="1"/>
       <c r="CO90" s="1"/>
     </row>
-    <row r="91" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:122" x14ac:dyDescent="0.25">
       <c r="C91" s="9"/>
       <c r="I91" s="6"/>
       <c r="P91" s="4"/>
@@ -9410,7 +9408,7 @@
       <c r="CJ91" s="1"/>
       <c r="CO91" s="1"/>
     </row>
-    <row r="92" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:122" x14ac:dyDescent="0.25">
       <c r="C92" s="9"/>
       <c r="D92" s="1"/>
       <c r="E92" s="2"/>
@@ -9458,7 +9456,7 @@
       <c r="CD92" s="4"/>
       <c r="CJ92" s="4"/>
     </row>
-    <row r="93" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:122" x14ac:dyDescent="0.25">
       <c r="C93" s="9"/>
       <c r="I93" s="6"/>
       <c r="P93" s="4"/>
@@ -9486,7 +9484,7 @@
       <c r="BN93" s="6"/>
       <c r="CO93" s="1"/>
     </row>
-    <row r="94" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:122" x14ac:dyDescent="0.25">
       <c r="C94" s="9"/>
       <c r="I94" s="6"/>
       <c r="P94" s="4"/>
@@ -9514,7 +9512,7 @@
       <c r="BN94" s="6"/>
       <c r="CJ94" s="1"/>
     </row>
-    <row r="95" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:122" x14ac:dyDescent="0.25">
       <c r="C95" s="9"/>
       <c r="I95" s="6"/>
       <c r="P95" s="4"/>
@@ -9552,7 +9550,7 @@
       <c r="CC95" s="1"/>
       <c r="CD95" s="1"/>
     </row>
-    <row r="96" spans="1:122" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:122" x14ac:dyDescent="0.25">
       <c r="C96" s="9"/>
       <c r="I96" s="6"/>
       <c r="P96" s="4"/>
@@ -9590,7 +9588,7 @@
       <c r="CD96" s="1"/>
       <c r="CO96" s="1"/>
     </row>
-    <row r="97" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="97" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C97" s="9"/>
       <c r="I97" s="6"/>
       <c r="P97" s="4"/>
@@ -9618,7 +9616,7 @@
       <c r="BN97" s="6"/>
       <c r="CJ97" s="1"/>
     </row>
-    <row r="98" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="98" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C98" s="9"/>
       <c r="I98" s="6"/>
       <c r="AJ98" s="1"/>
@@ -9645,7 +9643,7 @@
       <c r="BN98" s="6"/>
       <c r="CJ98" s="1"/>
     </row>
-    <row r="99" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="99" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C99" s="9"/>
       <c r="I99" s="6"/>
       <c r="AC99" s="1"/>
@@ -9682,7 +9680,7 @@
       <c r="CC99" s="1"/>
       <c r="CD99" s="1"/>
     </row>
-    <row r="100" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="100" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C100" s="9"/>
       <c r="I100" s="6"/>
       <c r="AU100"/>
@@ -9702,7 +9700,7 @@
       <c r="BN100" s="6"/>
       <c r="CJ100" s="1"/>
     </row>
-    <row r="101" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="101" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C101" s="9"/>
       <c r="D101" s="1"/>
       <c r="F101" s="2"/>
@@ -9731,7 +9729,7 @@
       <c r="BV101" s="3"/>
       <c r="CJ101" s="1"/>
     </row>
-    <row r="102" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="102" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C102" s="2"/>
       <c r="D102" s="1"/>
       <c r="E102" s="2"/>
@@ -9890,7 +9888,7 @@
       <c r="FI102" s="4"/>
       <c r="FJ102" s="4"/>
     </row>
-    <row r="103" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="103" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C103" s="2"/>
       <c r="D103" s="1"/>
       <c r="E103" s="2"/>
@@ -10053,7 +10051,7 @@
       <c r="FI103" s="4"/>
       <c r="FJ103" s="4"/>
     </row>
-    <row r="104" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="104" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C104" s="2"/>
       <c r="D104" s="1"/>
       <c r="E104" s="2"/>
@@ -10217,7 +10215,7 @@
       <c r="FI104" s="4"/>
       <c r="FJ104" s="4"/>
     </row>
-    <row r="105" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="105" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C105" s="2"/>
       <c r="D105" s="1"/>
       <c r="F105" s="2"/>
@@ -10380,7 +10378,7 @@
       <c r="FI105" s="4"/>
       <c r="FJ105" s="4"/>
     </row>
-    <row r="106" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="106" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C106" s="2"/>
       <c r="D106" s="1"/>
       <c r="E106" s="2"/>
@@ -10544,7 +10542,7 @@
       <c r="FI106" s="4"/>
       <c r="FJ106" s="4"/>
     </row>
-    <row r="107" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="107" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C107" s="2"/>
       <c r="D107" s="1"/>
       <c r="F107" s="2"/>
@@ -10707,7 +10705,7 @@
       <c r="FI107" s="4"/>
       <c r="FJ107" s="4"/>
     </row>
-    <row r="108" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="108" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C108" s="2"/>
       <c r="D108" s="1"/>
       <c r="E108" s="2"/>
@@ -10869,7 +10867,7 @@
       <c r="FI108" s="4"/>
       <c r="FJ108" s="4"/>
     </row>
-    <row r="109" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="109" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C109" s="2"/>
       <c r="D109" s="1"/>
       <c r="E109" s="2"/>
@@ -11032,7 +11030,7 @@
       <c r="FI109" s="4"/>
       <c r="FJ109" s="4"/>
     </row>
-    <row r="110" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="110" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C110" s="2"/>
       <c r="D110" s="1"/>
       <c r="E110" s="2"/>
@@ -11196,7 +11194,7 @@
       <c r="FI110" s="4"/>
       <c r="FJ110" s="4"/>
     </row>
-    <row r="111" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="111" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C111" s="2"/>
       <c r="D111" s="1"/>
       <c r="F111" s="2"/>
@@ -11359,7 +11357,7 @@
       <c r="FI111" s="4"/>
       <c r="FJ111" s="4"/>
     </row>
-    <row r="112" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="112" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C112" s="2"/>
       <c r="D112" s="1"/>
       <c r="E112" s="2"/>
@@ -11523,7 +11521,7 @@
       <c r="FI112" s="4"/>
       <c r="FJ112" s="4"/>
     </row>
-    <row r="113" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="113" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C113" s="2"/>
       <c r="D113" s="1"/>
       <c r="F113" s="2"/>
@@ -11686,7 +11684,7 @@
       <c r="FI113" s="4"/>
       <c r="FJ113" s="4"/>
     </row>
-    <row r="114" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="114" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C114" s="2"/>
       <c r="D114" s="1"/>
       <c r="E114" s="2"/>
@@ -11848,7 +11846,7 @@
       <c r="FI114" s="4"/>
       <c r="FJ114" s="4"/>
     </row>
-    <row r="115" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="115" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C115" s="2"/>
       <c r="D115" s="1"/>
       <c r="E115" s="2"/>
@@ -12011,7 +12009,7 @@
       <c r="FI115" s="4"/>
       <c r="FJ115" s="4"/>
     </row>
-    <row r="116" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="116" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C116" s="2"/>
       <c r="D116" s="1"/>
       <c r="E116" s="2"/>
@@ -12175,7 +12173,7 @@
       <c r="FI116" s="4"/>
       <c r="FJ116" s="4"/>
     </row>
-    <row r="117" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="117" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C117" s="2"/>
       <c r="D117" s="1"/>
       <c r="F117" s="2"/>
@@ -12338,7 +12336,7 @@
       <c r="FI117" s="4"/>
       <c r="FJ117" s="4"/>
     </row>
-    <row r="118" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="118" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C118" s="2"/>
       <c r="D118" s="1"/>
       <c r="E118" s="2"/>
@@ -12502,7 +12500,7 @@
       <c r="FI118" s="4"/>
       <c r="FJ118" s="4"/>
     </row>
-    <row r="119" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="119" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C119" s="2"/>
       <c r="D119" s="1"/>
       <c r="F119" s="2"/>
@@ -12665,7 +12663,7 @@
       <c r="FI119" s="4"/>
       <c r="FJ119" s="4"/>
     </row>
-    <row r="120" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="120" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C120" s="2"/>
       <c r="D120" s="1"/>
       <c r="E120" s="2"/>
@@ -12827,7 +12825,7 @@
       <c r="FI120" s="4"/>
       <c r="FJ120" s="4"/>
     </row>
-    <row r="121" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="121" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C121" s="2"/>
       <c r="D121" s="1"/>
       <c r="E121" s="2"/>
@@ -12990,7 +12988,7 @@
       <c r="FI121" s="4"/>
       <c r="FJ121" s="4"/>
     </row>
-    <row r="122" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="122" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C122" s="2"/>
       <c r="D122" s="1"/>
       <c r="E122" s="2"/>
@@ -13154,7 +13152,7 @@
       <c r="FI122" s="4"/>
       <c r="FJ122" s="4"/>
     </row>
-    <row r="123" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="123" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C123" s="2"/>
       <c r="D123" s="1"/>
       <c r="F123" s="2"/>
@@ -13317,7 +13315,7 @@
       <c r="FI123" s="4"/>
       <c r="FJ123" s="4"/>
     </row>
-    <row r="124" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="124" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C124" s="2"/>
       <c r="D124" s="1"/>
       <c r="E124" s="2"/>
@@ -13481,7 +13479,7 @@
       <c r="FI124" s="4"/>
       <c r="FJ124" s="4"/>
     </row>
-    <row r="125" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="125" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C125" s="2"/>
       <c r="D125" s="1"/>
       <c r="F125" s="2"/>
@@ -13644,7 +13642,7 @@
       <c r="FI125" s="4"/>
       <c r="FJ125" s="4"/>
     </row>
-    <row r="126" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="126" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C126" s="2"/>
       <c r="D126" s="1"/>
       <c r="E126" s="2"/>
@@ -13806,7 +13804,7 @@
       <c r="FI126" s="4"/>
       <c r="FJ126" s="4"/>
     </row>
-    <row r="127" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="127" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C127" s="2"/>
       <c r="D127" s="1"/>
       <c r="E127" s="2"/>
@@ -13970,7 +13968,7 @@
       <c r="FI127" s="4"/>
       <c r="FJ127" s="4"/>
     </row>
-    <row r="128" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="128" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C128" s="2"/>
       <c r="D128" s="1"/>
       <c r="F128" s="2"/>
@@ -14133,7 +14131,7 @@
       <c r="FI128" s="4"/>
       <c r="FJ128" s="4"/>
     </row>
-    <row r="129" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="129" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C129" s="2"/>
       <c r="D129" s="1"/>
       <c r="E129" s="2"/>
@@ -14295,7 +14293,7 @@
       <c r="FI129" s="4"/>
       <c r="FJ129" s="4"/>
     </row>
-    <row r="130" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="130" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C130" s="2"/>
       <c r="D130" s="1"/>
       <c r="E130" s="2"/>
@@ -14459,7 +14457,7 @@
       <c r="FI130" s="4"/>
       <c r="FJ130" s="4"/>
     </row>
-    <row r="131" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="131" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C131" s="2"/>
       <c r="D131" s="1"/>
       <c r="F131" s="2"/>
@@ -14622,7 +14620,7 @@
       <c r="FI131" s="4"/>
       <c r="FJ131" s="4"/>
     </row>
-    <row r="132" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="132" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C132" s="2"/>
       <c r="D132" s="1"/>
       <c r="E132" s="2"/>
@@ -14784,7 +14782,7 @@
       <c r="FI132" s="4"/>
       <c r="FJ132" s="4"/>
     </row>
-    <row r="133" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="133" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C133" s="2"/>
       <c r="D133" s="1"/>
       <c r="E133" s="2"/>
@@ -14948,7 +14946,7 @@
       <c r="FI133" s="4"/>
       <c r="FJ133" s="4"/>
     </row>
-    <row r="134" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="134" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C134" s="2"/>
       <c r="D134" s="1"/>
       <c r="F134" s="2"/>
@@ -15111,7 +15109,7 @@
       <c r="FI134" s="4"/>
       <c r="FJ134" s="4"/>
     </row>
-    <row r="135" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="135" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C135" s="2"/>
       <c r="D135" s="1"/>
       <c r="E135" s="2"/>
@@ -15273,7 +15271,7 @@
       <c r="FI135" s="4"/>
       <c r="FJ135" s="4"/>
     </row>
-    <row r="136" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="136" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C136" s="2"/>
       <c r="D136" s="1"/>
       <c r="E136" s="2"/>
@@ -15437,7 +15435,7 @@
       <c r="FI136" s="4"/>
       <c r="FJ136" s="4"/>
     </row>
-    <row r="137" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="137" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C137" s="2"/>
       <c r="D137" s="1"/>
       <c r="F137" s="2"/>
@@ -15597,7 +15595,7 @@
       <c r="FI137" s="4"/>
       <c r="FJ137" s="4"/>
     </row>
-    <row r="138" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="138" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C138" s="2"/>
       <c r="D138" s="1"/>
       <c r="E138" s="2"/>
@@ -15756,7 +15754,7 @@
       <c r="FI138" s="4"/>
       <c r="FJ138" s="4"/>
     </row>
-    <row r="139" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="139" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C139" s="2"/>
       <c r="D139" s="1"/>
       <c r="E139" s="2"/>
@@ -15919,7 +15917,7 @@
       <c r="FI139" s="4"/>
       <c r="FJ139" s="4"/>
     </row>
-    <row r="140" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="140" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C140" s="2"/>
       <c r="D140" s="1"/>
       <c r="E140" s="2"/>
@@ -16083,7 +16081,7 @@
       <c r="FI140" s="4"/>
       <c r="FJ140" s="4"/>
     </row>
-    <row r="141" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="141" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C141" s="2"/>
       <c r="D141" s="1"/>
       <c r="F141" s="2"/>
@@ -16246,7 +16244,7 @@
       <c r="FI141" s="4"/>
       <c r="FJ141" s="4"/>
     </row>
-    <row r="142" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="142" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C142" s="2"/>
       <c r="D142" s="1"/>
       <c r="E142" s="2"/>
@@ -16410,7 +16408,7 @@
       <c r="FI142" s="4"/>
       <c r="FJ142" s="4"/>
     </row>
-    <row r="143" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="143" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C143" s="2"/>
       <c r="D143" s="1"/>
       <c r="F143" s="2"/>
@@ -16573,7 +16571,7 @@
       <c r="FI143" s="4"/>
       <c r="FJ143" s="4"/>
     </row>
-    <row r="144" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="144" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C144" s="2"/>
       <c r="D144" s="1"/>
       <c r="E144" s="2"/>
@@ -16735,7 +16733,7 @@
       <c r="FI144" s="4"/>
       <c r="FJ144" s="4"/>
     </row>
-    <row r="145" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="145" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C145" s="2"/>
       <c r="D145" s="1"/>
       <c r="E145" s="2"/>
@@ -16898,7 +16896,7 @@
       <c r="FI145" s="4"/>
       <c r="FJ145" s="4"/>
     </row>
-    <row r="146" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="146" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C146" s="2"/>
       <c r="D146" s="1"/>
       <c r="E146" s="2"/>
@@ -17062,7 +17060,7 @@
       <c r="FI146" s="4"/>
       <c r="FJ146" s="4"/>
     </row>
-    <row r="147" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="147" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C147" s="2"/>
       <c r="D147" s="1"/>
       <c r="F147" s="2"/>
@@ -17225,7 +17223,7 @@
       <c r="FI147" s="4"/>
       <c r="FJ147" s="4"/>
     </row>
-    <row r="148" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="148" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C148" s="2"/>
       <c r="D148" s="1"/>
       <c r="E148" s="2"/>
@@ -17389,7 +17387,7 @@
       <c r="FI148" s="4"/>
       <c r="FJ148" s="4"/>
     </row>
-    <row r="149" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="149" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C149" s="2"/>
       <c r="D149" s="1"/>
       <c r="F149" s="2"/>
@@ -17552,7 +17550,7 @@
       <c r="FI149" s="4"/>
       <c r="FJ149" s="4"/>
     </row>
-    <row r="150" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="150" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C150" s="2"/>
       <c r="D150" s="1"/>
       <c r="E150" s="2"/>
@@ -17714,7 +17712,7 @@
       <c r="FI150" s="4"/>
       <c r="FJ150" s="4"/>
     </row>
-    <row r="151" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="151" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C151" s="2"/>
       <c r="D151" s="1"/>
       <c r="E151" s="2"/>
@@ -17877,7 +17875,7 @@
       <c r="FI151" s="4"/>
       <c r="FJ151" s="4"/>
     </row>
-    <row r="152" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="152" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C152" s="2"/>
       <c r="D152" s="1"/>
       <c r="E152" s="2"/>
@@ -18041,7 +18039,7 @@
       <c r="FI152" s="4"/>
       <c r="FJ152" s="4"/>
     </row>
-    <row r="153" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="153" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C153" s="2"/>
       <c r="D153" s="1"/>
       <c r="F153" s="2"/>
@@ -18204,7 +18202,7 @@
       <c r="FI153" s="4"/>
       <c r="FJ153" s="4"/>
     </row>
-    <row r="154" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="154" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C154" s="2"/>
       <c r="D154" s="1"/>
       <c r="E154" s="2"/>
@@ -18368,7 +18366,7 @@
       <c r="FI154" s="4"/>
       <c r="FJ154" s="4"/>
     </row>
-    <row r="155" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="155" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C155" s="2"/>
       <c r="D155" s="1"/>
       <c r="F155" s="2"/>
@@ -18531,7 +18529,7 @@
       <c r="FI155" s="4"/>
       <c r="FJ155" s="4"/>
     </row>
-    <row r="156" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="156" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C156" s="2"/>
       <c r="D156" s="1"/>
       <c r="E156" s="2"/>
@@ -18693,7 +18691,7 @@
       <c r="FI156" s="4"/>
       <c r="FJ156" s="4"/>
     </row>
-    <row r="157" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="157" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C157" s="2"/>
       <c r="D157" s="1"/>
       <c r="E157" s="2"/>
@@ -18856,7 +18854,7 @@
       <c r="FI157" s="4"/>
       <c r="FJ157" s="4"/>
     </row>
-    <row r="158" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="158" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C158" s="2"/>
       <c r="D158" s="1"/>
       <c r="E158" s="2"/>
@@ -19020,7 +19018,7 @@
       <c r="FI158" s="4"/>
       <c r="FJ158" s="4"/>
     </row>
-    <row r="159" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="159" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C159" s="2"/>
       <c r="D159" s="1"/>
       <c r="F159" s="2"/>
@@ -19183,7 +19181,7 @@
       <c r="FI159" s="4"/>
       <c r="FJ159" s="4"/>
     </row>
-    <row r="160" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="160" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C160" s="2"/>
       <c r="D160" s="1"/>
       <c r="E160" s="2"/>
@@ -19347,7 +19345,7 @@
       <c r="FI160" s="4"/>
       <c r="FJ160" s="4"/>
     </row>
-    <row r="161" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="161" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C161" s="2"/>
       <c r="D161" s="1"/>
       <c r="F161" s="2"/>
@@ -19507,7 +19505,7 @@
       <c r="FI161" s="4"/>
       <c r="FJ161" s="4"/>
     </row>
-    <row r="162" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="162" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C162" s="2"/>
       <c r="D162" s="1"/>
       <c r="E162" s="2"/>
@@ -19671,7 +19669,7 @@
       <c r="FI162" s="4"/>
       <c r="FJ162" s="4"/>
     </row>
-    <row r="163" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="163" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C163" s="2"/>
       <c r="D163" s="1"/>
       <c r="E163" s="2"/>
@@ -19835,7 +19833,7 @@
       <c r="FI163" s="4"/>
       <c r="FJ163" s="4"/>
     </row>
-    <row r="164" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="164" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C164" s="2"/>
       <c r="D164" s="1"/>
       <c r="E164" s="2"/>
@@ -19999,7 +19997,7 @@
       <c r="FI164" s="4"/>
       <c r="FJ164" s="4"/>
     </row>
-    <row r="165" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="165" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C165" s="2"/>
       <c r="D165" s="1"/>
       <c r="E165" s="2"/>
@@ -20163,7 +20161,7 @@
       <c r="FI165" s="4"/>
       <c r="FJ165" s="4"/>
     </row>
-    <row r="166" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="166" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C166" s="2"/>
       <c r="D166" s="1"/>
       <c r="E166" s="2"/>
@@ -20327,7 +20325,7 @@
       <c r="FI166" s="4"/>
       <c r="FJ166" s="4"/>
     </row>
-    <row r="167" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="167" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C167" s="2"/>
       <c r="D167" s="1"/>
       <c r="E167" s="2"/>
@@ -20491,7 +20489,7 @@
       <c r="FI167" s="4"/>
       <c r="FJ167" s="4"/>
     </row>
-    <row r="168" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="168" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C168" s="2"/>
       <c r="D168" s="1"/>
       <c r="E168" s="2"/>
@@ -20655,7 +20653,7 @@
       <c r="FI168" s="4"/>
       <c r="FJ168" s="4"/>
     </row>
-    <row r="169" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="169" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C169" s="2"/>
       <c r="D169" s="1"/>
       <c r="E169" s="2"/>
@@ -20819,7 +20817,7 @@
       <c r="FI169" s="4"/>
       <c r="FJ169" s="4"/>
     </row>
-    <row r="170" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="170" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C170" s="2"/>
       <c r="D170" s="1"/>
       <c r="E170" s="2"/>
@@ -20983,7 +20981,7 @@
       <c r="FI170" s="4"/>
       <c r="FJ170" s="4"/>
     </row>
-    <row r="171" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="171" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C171" s="2"/>
       <c r="D171" s="1"/>
       <c r="E171" s="2"/>
@@ -21147,7 +21145,7 @@
       <c r="FI171" s="4"/>
       <c r="FJ171" s="4"/>
     </row>
-    <row r="172" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="172" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C172" s="2"/>
       <c r="D172" s="1"/>
       <c r="E172" s="2"/>
@@ -21311,7 +21309,7 @@
       <c r="FI172" s="4"/>
       <c r="FJ172" s="4"/>
     </row>
-    <row r="173" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="173" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C173" s="2"/>
       <c r="D173" s="1"/>
       <c r="E173" s="2"/>
@@ -21475,7 +21473,7 @@
       <c r="FI173" s="4"/>
       <c r="FJ173" s="4"/>
     </row>
-    <row r="174" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="174" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C174" s="2"/>
       <c r="D174" s="1"/>
       <c r="E174" s="2"/>
@@ -21639,7 +21637,7 @@
       <c r="FI174" s="4"/>
       <c r="FJ174" s="4"/>
     </row>
-    <row r="175" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="175" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C175" s="2"/>
       <c r="D175" s="1"/>
       <c r="E175" s="2"/>
@@ -21803,7 +21801,7 @@
       <c r="FI175" s="4"/>
       <c r="FJ175" s="4"/>
     </row>
-    <row r="176" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="176" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C176" s="2"/>
       <c r="D176" s="1"/>
       <c r="E176" s="2"/>
@@ -21967,7 +21965,7 @@
       <c r="FI176" s="4"/>
       <c r="FJ176" s="4"/>
     </row>
-    <row r="177" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="177" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C177" s="2"/>
       <c r="D177" s="1"/>
       <c r="E177" s="2"/>
@@ -22131,7 +22129,7 @@
       <c r="FI177" s="4"/>
       <c r="FJ177" s="4"/>
     </row>
-    <row r="178" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="178" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C178" s="2"/>
       <c r="D178" s="1"/>
       <c r="E178" s="2"/>
@@ -22295,7 +22293,7 @@
       <c r="FI178" s="4"/>
       <c r="FJ178" s="4"/>
     </row>
-    <row r="179" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="179" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C179" s="2"/>
       <c r="D179" s="1"/>
       <c r="E179" s="2"/>
@@ -22459,7 +22457,7 @@
       <c r="FI179" s="4"/>
       <c r="FJ179" s="4"/>
     </row>
-    <row r="180" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="180" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C180" s="2"/>
       <c r="D180" s="1"/>
       <c r="E180" s="2"/>
@@ -22623,7 +22621,7 @@
       <c r="FI180" s="4"/>
       <c r="FJ180" s="4"/>
     </row>
-    <row r="181" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="181" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C181" s="2"/>
       <c r="D181" s="1"/>
       <c r="E181" s="2"/>
@@ -22787,7 +22785,7 @@
       <c r="FI181" s="4"/>
       <c r="FJ181" s="4"/>
     </row>
-    <row r="182" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="182" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C182" s="2"/>
       <c r="D182" s="1"/>
       <c r="E182" s="2"/>
@@ -22951,7 +22949,7 @@
       <c r="FI182" s="4"/>
       <c r="FJ182" s="4"/>
     </row>
-    <row r="183" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="183" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C183" s="2"/>
       <c r="D183" s="1"/>
       <c r="E183" s="2"/>
@@ -23115,7 +23113,7 @@
       <c r="FI183" s="4"/>
       <c r="FJ183" s="4"/>
     </row>
-    <row r="184" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="184" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C184" s="2"/>
       <c r="D184" s="1"/>
       <c r="E184" s="2"/>
@@ -23279,7 +23277,7 @@
       <c r="FI184" s="4"/>
       <c r="FJ184" s="4"/>
     </row>
-    <row r="185" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="185" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C185" s="2"/>
       <c r="D185" s="1"/>
       <c r="E185" s="2"/>
@@ -23443,7 +23441,7 @@
       <c r="FI185" s="4"/>
       <c r="FJ185" s="4"/>
     </row>
-    <row r="186" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="186" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C186" s="2"/>
       <c r="D186" s="1"/>
       <c r="E186" s="2"/>
@@ -23607,7 +23605,7 @@
       <c r="FI186" s="4"/>
       <c r="FJ186" s="4"/>
     </row>
-    <row r="187" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="187" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C187" s="2"/>
       <c r="D187" s="1"/>
       <c r="E187" s="2"/>
@@ -23771,7 +23769,7 @@
       <c r="FI187" s="4"/>
       <c r="FJ187" s="4"/>
     </row>
-    <row r="188" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="188" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C188" s="2"/>
       <c r="D188" s="1"/>
       <c r="E188" s="2"/>
@@ -23935,7 +23933,7 @@
       <c r="FI188" s="4"/>
       <c r="FJ188" s="4"/>
     </row>
-    <row r="189" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="189" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C189" s="2"/>
       <c r="D189" s="1"/>
       <c r="E189" s="2"/>
@@ -24099,7 +24097,7 @@
       <c r="FI189" s="4"/>
       <c r="FJ189" s="4"/>
     </row>
-    <row r="190" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="190" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C190" s="2"/>
       <c r="D190" s="1"/>
       <c r="E190" s="2"/>
@@ -24263,7 +24261,7 @@
       <c r="FI190" s="4"/>
       <c r="FJ190" s="4"/>
     </row>
-    <row r="191" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="191" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C191" s="2"/>
       <c r="D191" s="1"/>
       <c r="E191" s="2"/>
@@ -24427,7 +24425,7 @@
       <c r="FI191" s="4"/>
       <c r="FJ191" s="4"/>
     </row>
-    <row r="192" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="192" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C192" s="2"/>
       <c r="D192" s="1"/>
       <c r="E192" s="2"/>
@@ -24591,7 +24589,7 @@
       <c r="FI192" s="4"/>
       <c r="FJ192" s="4"/>
     </row>
-    <row r="193" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="193" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C193" s="2"/>
       <c r="D193" s="1"/>
       <c r="E193" s="2"/>
@@ -24755,7 +24753,7 @@
       <c r="FI193" s="4"/>
       <c r="FJ193" s="4"/>
     </row>
-    <row r="194" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="194" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C194" s="2"/>
       <c r="D194" s="1"/>
       <c r="E194" s="2"/>
@@ -24919,7 +24917,7 @@
       <c r="FI194" s="4"/>
       <c r="FJ194" s="4"/>
     </row>
-    <row r="195" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="195" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C195" s="2"/>
       <c r="D195" s="1"/>
       <c r="E195" s="2"/>
@@ -25083,7 +25081,7 @@
       <c r="FI195" s="4"/>
       <c r="FJ195" s="4"/>
     </row>
-    <row r="196" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="196" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C196" s="2"/>
       <c r="D196" s="1"/>
       <c r="E196" s="2"/>
@@ -25247,7 +25245,7 @@
       <c r="FI196" s="4"/>
       <c r="FJ196" s="4"/>
     </row>
-    <row r="197" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="197" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C197" s="2"/>
       <c r="D197" s="1"/>
       <c r="E197" s="2"/>
@@ -25411,7 +25409,7 @@
       <c r="FI197" s="4"/>
       <c r="FJ197" s="4"/>
     </row>
-    <row r="198" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="198" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C198" s="9"/>
       <c r="AU198"/>
       <c r="AV198"/>
@@ -25423,7 +25421,7 @@
       <c r="BC198"/>
       <c r="BD198"/>
     </row>
-    <row r="199" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="199" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C199" s="9"/>
       <c r="AU199"/>
       <c r="AV199"/>
@@ -25435,7 +25433,7 @@
       <c r="BC199"/>
       <c r="BD199"/>
     </row>
-    <row r="200" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="200" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C200" s="9"/>
       <c r="AU200"/>
       <c r="AV200"/>
@@ -25447,7 +25445,7 @@
       <c r="BC200"/>
       <c r="BD200"/>
     </row>
-    <row r="201" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="201" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C201" s="9"/>
       <c r="AU201"/>
       <c r="AV201"/>
@@ -25459,7 +25457,7 @@
       <c r="BC201"/>
       <c r="BD201"/>
     </row>
-    <row r="202" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="202" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C202" s="9"/>
       <c r="AU202"/>
       <c r="AV202"/>
@@ -25471,7 +25469,7 @@
       <c r="BC202"/>
       <c r="BD202"/>
     </row>
-    <row r="203" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="203" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C203" s="9"/>
       <c r="AU203"/>
       <c r="AV203"/>
@@ -25483,7 +25481,7 @@
       <c r="BC203"/>
       <c r="BD203"/>
     </row>
-    <row r="204" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="204" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C204" s="9"/>
       <c r="AU204"/>
       <c r="AV204"/>
@@ -25495,7 +25493,7 @@
       <c r="BC204"/>
       <c r="BD204"/>
     </row>
-    <row r="205" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="205" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C205" s="9"/>
       <c r="AU205"/>
       <c r="AV205"/>
@@ -25507,7 +25505,7 @@
       <c r="BC205"/>
       <c r="BD205"/>
     </row>
-    <row r="206" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="206" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C206" s="9"/>
       <c r="AU206"/>
       <c r="AV206"/>
@@ -25519,7 +25517,7 @@
       <c r="BC206"/>
       <c r="BD206"/>
     </row>
-    <row r="207" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="207" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C207" s="9"/>
       <c r="AU207"/>
       <c r="AV207"/>
@@ -25531,7 +25529,7 @@
       <c r="BC207"/>
       <c r="BD207"/>
     </row>
-    <row r="208" spans="3:166" x14ac:dyDescent="0.45">
+    <row r="208" spans="3:166" x14ac:dyDescent="0.25">
       <c r="C208" s="9"/>
       <c r="AU208"/>
       <c r="AV208"/>
@@ -25543,7 +25541,7 @@
       <c r="BC208"/>
       <c r="BD208"/>
     </row>
-    <row r="209" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="209" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C209" s="9"/>
       <c r="AU209"/>
       <c r="AV209"/>
@@ -25555,7 +25553,7 @@
       <c r="BC209"/>
       <c r="BD209"/>
     </row>
-    <row r="210" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="210" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C210" s="9"/>
       <c r="AU210"/>
       <c r="AV210"/>
@@ -25567,7 +25565,7 @@
       <c r="BC210"/>
       <c r="BD210"/>
     </row>
-    <row r="211" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="211" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C211" s="9"/>
       <c r="AU211"/>
       <c r="AV211"/>
@@ -25579,7 +25577,7 @@
       <c r="BC211"/>
       <c r="BD211"/>
     </row>
-    <row r="212" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="212" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C212" s="9"/>
       <c r="AU212"/>
       <c r="AV212"/>
@@ -25591,7 +25589,7 @@
       <c r="BC212"/>
       <c r="BD212"/>
     </row>
-    <row r="213" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="213" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C213" s="9"/>
       <c r="AU213"/>
       <c r="AV213"/>
@@ -25603,7 +25601,7 @@
       <c r="BC213"/>
       <c r="BD213"/>
     </row>
-    <row r="214" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="214" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C214" s="9"/>
       <c r="AU214"/>
       <c r="AV214"/>
@@ -25615,7 +25613,7 @@
       <c r="BC214"/>
       <c r="BD214"/>
     </row>
-    <row r="215" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="215" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C215" s="9"/>
       <c r="AU215"/>
       <c r="AV215"/>
@@ -25627,7 +25625,7 @@
       <c r="BC215"/>
       <c r="BD215"/>
     </row>
-    <row r="216" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="216" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C216" s="9"/>
       <c r="AU216"/>
       <c r="AV216"/>
@@ -25639,7 +25637,7 @@
       <c r="BC216"/>
       <c r="BD216"/>
     </row>
-    <row r="217" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="217" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C217" s="9"/>
       <c r="AU217"/>
       <c r="AV217"/>
@@ -25651,7 +25649,7 @@
       <c r="BC217"/>
       <c r="BD217"/>
     </row>
-    <row r="218" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="218" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C218" s="9"/>
       <c r="AU218"/>
       <c r="AV218"/>
@@ -25663,7 +25661,7 @@
       <c r="BC218"/>
       <c r="BD218"/>
     </row>
-    <row r="219" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="219" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C219" s="9"/>
       <c r="AU219"/>
       <c r="AV219"/>
@@ -25675,7 +25673,7 @@
       <c r="BC219"/>
       <c r="BD219"/>
     </row>
-    <row r="220" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="220" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C220" s="9"/>
       <c r="AU220"/>
       <c r="AV220"/>
@@ -25687,7 +25685,7 @@
       <c r="BC220"/>
       <c r="BD220"/>
     </row>
-    <row r="221" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="221" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C221" s="9"/>
       <c r="AU221"/>
       <c r="AV221"/>
@@ -25699,7 +25697,7 @@
       <c r="BC221"/>
       <c r="BD221"/>
     </row>
-    <row r="222" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="222" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C222" s="9"/>
       <c r="AU222"/>
       <c r="AV222"/>
@@ -25711,7 +25709,7 @@
       <c r="BC222"/>
       <c r="BD222"/>
     </row>
-    <row r="223" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="223" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C223" s="9"/>
       <c r="AU223"/>
       <c r="AV223"/>
@@ -25723,7 +25721,7 @@
       <c r="BC223"/>
       <c r="BD223"/>
     </row>
-    <row r="224" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="224" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C224" s="9"/>
       <c r="AU224"/>
       <c r="AV224"/>
@@ -25735,7 +25733,7 @@
       <c r="BC224"/>
       <c r="BD224"/>
     </row>
-    <row r="225" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="225" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C225" s="9"/>
       <c r="AU225"/>
       <c r="AV225"/>
@@ -25747,7 +25745,7 @@
       <c r="BC225"/>
       <c r="BD225"/>
     </row>
-    <row r="226" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="226" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C226" s="9"/>
       <c r="AU226"/>
       <c r="AV226"/>
@@ -25759,7 +25757,7 @@
       <c r="BC226"/>
       <c r="BD226"/>
     </row>
-    <row r="227" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="227" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C227" s="9"/>
       <c r="AU227"/>
       <c r="AV227"/>
@@ -25771,7 +25769,7 @@
       <c r="BC227"/>
       <c r="BD227"/>
     </row>
-    <row r="228" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="228" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C228" s="9"/>
       <c r="AU228"/>
       <c r="AV228"/>
@@ -25783,7 +25781,7 @@
       <c r="BC228"/>
       <c r="BD228"/>
     </row>
-    <row r="229" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="229" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C229" s="9"/>
       <c r="AU229"/>
       <c r="AV229"/>
@@ -25795,7 +25793,7 @@
       <c r="BC229"/>
       <c r="BD229"/>
     </row>
-    <row r="230" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="230" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C230" s="9"/>
       <c r="AU230"/>
       <c r="AV230"/>
@@ -25807,7 +25805,7 @@
       <c r="BC230"/>
       <c r="BD230"/>
     </row>
-    <row r="231" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="231" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C231" s="9"/>
       <c r="AU231"/>
       <c r="AV231"/>
@@ -25819,7 +25817,7 @@
       <c r="BC231"/>
       <c r="BD231"/>
     </row>
-    <row r="232" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="232" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C232" s="9"/>
       <c r="AU232"/>
       <c r="AV232"/>
@@ -25831,7 +25829,7 @@
       <c r="BC232"/>
       <c r="BD232"/>
     </row>
-    <row r="233" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="233" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C233" s="9"/>
       <c r="AU233"/>
       <c r="AV233"/>
@@ -25843,7 +25841,7 @@
       <c r="BC233"/>
       <c r="BD233"/>
     </row>
-    <row r="234" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="234" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C234" s="9"/>
       <c r="AU234"/>
       <c r="AV234"/>
@@ -25855,7 +25853,7 @@
       <c r="BC234"/>
       <c r="BD234"/>
     </row>
-    <row r="235" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="235" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C235" s="9"/>
       <c r="AU235"/>
       <c r="AV235"/>
@@ -25867,7 +25865,7 @@
       <c r="BC235"/>
       <c r="BD235"/>
     </row>
-    <row r="236" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="236" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C236" s="9"/>
       <c r="AU236"/>
       <c r="AV236"/>
@@ -25879,7 +25877,7 @@
       <c r="BC236"/>
       <c r="BD236"/>
     </row>
-    <row r="237" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="237" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C237" s="9"/>
       <c r="AU237"/>
       <c r="AV237"/>
@@ -25891,7 +25889,7 @@
       <c r="BC237"/>
       <c r="BD237"/>
     </row>
-    <row r="238" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="238" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C238" s="9"/>
       <c r="AU238"/>
       <c r="AV238"/>
@@ -25903,7 +25901,7 @@
       <c r="BC238"/>
       <c r="BD238"/>
     </row>
-    <row r="239" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="239" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C239" s="9"/>
       <c r="AU239"/>
       <c r="AV239"/>
@@ -25915,7 +25913,7 @@
       <c r="BC239"/>
       <c r="BD239"/>
     </row>
-    <row r="240" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="240" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C240" s="9"/>
       <c r="AU240"/>
       <c r="AV240"/>
@@ -25927,7 +25925,7 @@
       <c r="BC240"/>
       <c r="BD240"/>
     </row>
-    <row r="241" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="241" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C241" s="9"/>
       <c r="AU241"/>
       <c r="AV241"/>
@@ -25939,7 +25937,7 @@
       <c r="BC241"/>
       <c r="BD241"/>
     </row>
-    <row r="242" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="242" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C242" s="9"/>
       <c r="AU242"/>
       <c r="AV242"/>
@@ -25951,7 +25949,7 @@
       <c r="BC242"/>
       <c r="BD242"/>
     </row>
-    <row r="243" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="243" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C243" s="9"/>
       <c r="AU243"/>
       <c r="AV243"/>
@@ -25963,7 +25961,7 @@
       <c r="BC243"/>
       <c r="BD243"/>
     </row>
-    <row r="244" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="244" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C244" s="9"/>
       <c r="AU244"/>
       <c r="AV244"/>
@@ -25975,7 +25973,7 @@
       <c r="BC244"/>
       <c r="BD244"/>
     </row>
-    <row r="245" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="245" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C245" s="9"/>
       <c r="AU245"/>
       <c r="AV245"/>
@@ -25987,7 +25985,7 @@
       <c r="BC245"/>
       <c r="BD245"/>
     </row>
-    <row r="246" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="246" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C246" s="9"/>
       <c r="AU246"/>
       <c r="AV246"/>
@@ -25999,7 +25997,7 @@
       <c r="BC246"/>
       <c r="BD246"/>
     </row>
-    <row r="247" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="247" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C247" s="9"/>
       <c r="AU247"/>
       <c r="AV247"/>
@@ -26011,7 +26009,7 @@
       <c r="BC247"/>
       <c r="BD247"/>
     </row>
-    <row r="248" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="248" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C248" s="9"/>
       <c r="AU248"/>
       <c r="AV248"/>
@@ -26023,7 +26021,7 @@
       <c r="BC248"/>
       <c r="BD248"/>
     </row>
-    <row r="249" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="249" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C249" s="9"/>
       <c r="AU249"/>
       <c r="AV249"/>
@@ -26035,7 +26033,7 @@
       <c r="BC249"/>
       <c r="BD249"/>
     </row>
-    <row r="250" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="250" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C250" s="9"/>
       <c r="AU250"/>
       <c r="AV250"/>
@@ -26047,7 +26045,7 @@
       <c r="BC250"/>
       <c r="BD250"/>
     </row>
-    <row r="251" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="251" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C251" s="9"/>
       <c r="AU251"/>
       <c r="AV251"/>
@@ -26059,7 +26057,7 @@
       <c r="BC251"/>
       <c r="BD251"/>
     </row>
-    <row r="252" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="252" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C252" s="9"/>
       <c r="AU252"/>
       <c r="AV252"/>
@@ -26071,7 +26069,7 @@
       <c r="BC252"/>
       <c r="BD252"/>
     </row>
-    <row r="253" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="253" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C253" s="9"/>
       <c r="AU253"/>
       <c r="AV253"/>
@@ -26083,7 +26081,7 @@
       <c r="BC253"/>
       <c r="BD253"/>
     </row>
-    <row r="254" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="254" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C254" s="9"/>
       <c r="AU254"/>
       <c r="AV254"/>
@@ -26095,7 +26093,7 @@
       <c r="BC254"/>
       <c r="BD254"/>
     </row>
-    <row r="255" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="255" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C255" s="9"/>
       <c r="AU255"/>
       <c r="AV255"/>
@@ -26107,7 +26105,7 @@
       <c r="BC255"/>
       <c r="BD255"/>
     </row>
-    <row r="256" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="256" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C256" s="9"/>
       <c r="AU256"/>
       <c r="AV256"/>
@@ -26119,7 +26117,7 @@
       <c r="BC256"/>
       <c r="BD256"/>
     </row>
-    <row r="257" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="257" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C257" s="9"/>
       <c r="AU257"/>
       <c r="AV257"/>
@@ -26131,7 +26129,7 @@
       <c r="BC257"/>
       <c r="BD257"/>
     </row>
-    <row r="258" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="258" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C258" s="9"/>
       <c r="AU258"/>
       <c r="AV258"/>
@@ -26143,7 +26141,7 @@
       <c r="BC258"/>
       <c r="BD258"/>
     </row>
-    <row r="259" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="259" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C259" s="9"/>
       <c r="AU259"/>
       <c r="AV259"/>
@@ -26155,7 +26153,7 @@
       <c r="BC259"/>
       <c r="BD259"/>
     </row>
-    <row r="260" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="260" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C260" s="9"/>
       <c r="AU260"/>
       <c r="AV260"/>
@@ -26167,7 +26165,7 @@
       <c r="BC260"/>
       <c r="BD260"/>
     </row>
-    <row r="261" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="261" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C261" s="9"/>
       <c r="AU261"/>
       <c r="AV261"/>
@@ -26179,7 +26177,7 @@
       <c r="BC261"/>
       <c r="BD261"/>
     </row>
-    <row r="262" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="262" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C262" s="9"/>
       <c r="AU262"/>
       <c r="AV262"/>
@@ -26191,7 +26189,7 @@
       <c r="BC262"/>
       <c r="BD262"/>
     </row>
-    <row r="263" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="263" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C263" s="9"/>
       <c r="AU263"/>
       <c r="AV263"/>
@@ -26203,7 +26201,7 @@
       <c r="BC263"/>
       <c r="BD263"/>
     </row>
-    <row r="264" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="264" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C264" s="9"/>
       <c r="AU264"/>
       <c r="AV264"/>
@@ -26215,7 +26213,7 @@
       <c r="BC264"/>
       <c r="BD264"/>
     </row>
-    <row r="265" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="265" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C265" s="9"/>
       <c r="AU265"/>
       <c r="AV265"/>
@@ -26227,7 +26225,7 @@
       <c r="BC265"/>
       <c r="BD265"/>
     </row>
-    <row r="266" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="266" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C266" s="9"/>
       <c r="AU266"/>
       <c r="AV266"/>
@@ -26239,7 +26237,7 @@
       <c r="BC266"/>
       <c r="BD266"/>
     </row>
-    <row r="267" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="267" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C267" s="9"/>
       <c r="AU267"/>
       <c r="AV267"/>
@@ -26251,7 +26249,7 @@
       <c r="BC267"/>
       <c r="BD267"/>
     </row>
-    <row r="268" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="268" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C268" s="9"/>
       <c r="AU268"/>
       <c r="AV268"/>
@@ -26263,7 +26261,7 @@
       <c r="BC268"/>
       <c r="BD268"/>
     </row>
-    <row r="269" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="269" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C269" s="9"/>
       <c r="AU269"/>
       <c r="AV269"/>
@@ -26275,7 +26273,7 @@
       <c r="BC269"/>
       <c r="BD269"/>
     </row>
-    <row r="270" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="270" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C270" s="9"/>
       <c r="AU270"/>
       <c r="AV270"/>
@@ -26287,7 +26285,7 @@
       <c r="BC270"/>
       <c r="BD270"/>
     </row>
-    <row r="271" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="271" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C271" s="9"/>
       <c r="AU271"/>
       <c r="AV271"/>
@@ -26299,7 +26297,7 @@
       <c r="BC271"/>
       <c r="BD271"/>
     </row>
-    <row r="272" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="272" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C272" s="9"/>
       <c r="AU272"/>
       <c r="AV272"/>
@@ -26311,7 +26309,7 @@
       <c r="BC272"/>
       <c r="BD272"/>
     </row>
-    <row r="273" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="273" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C273" s="9"/>
       <c r="AU273"/>
       <c r="AV273"/>
@@ -26323,7 +26321,7 @@
       <c r="BC273"/>
       <c r="BD273"/>
     </row>
-    <row r="274" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="274" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C274" s="9"/>
       <c r="AU274"/>
       <c r="AV274"/>
@@ -26335,7 +26333,7 @@
       <c r="BC274"/>
       <c r="BD274"/>
     </row>
-    <row r="275" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="275" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C275" s="9"/>
       <c r="AU275"/>
       <c r="AV275"/>
@@ -26347,7 +26345,7 @@
       <c r="BC275"/>
       <c r="BD275"/>
     </row>
-    <row r="276" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="276" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C276" s="9"/>
       <c r="AU276"/>
       <c r="AV276"/>
@@ -26359,7 +26357,7 @@
       <c r="BC276"/>
       <c r="BD276"/>
     </row>
-    <row r="277" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="277" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C277" s="9"/>
       <c r="AU277"/>
       <c r="AV277"/>
@@ -26371,7 +26369,7 @@
       <c r="BC277"/>
       <c r="BD277"/>
     </row>
-    <row r="278" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="278" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C278" s="9"/>
       <c r="G278" s="6"/>
       <c r="AU278"/>
@@ -26384,7 +26382,7 @@
       <c r="BC278"/>
       <c r="BD278"/>
     </row>
-    <row r="279" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="279" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C279" s="9"/>
       <c r="G279" s="6"/>
       <c r="AU279"/>
@@ -26397,7 +26395,7 @@
       <c r="BC279"/>
       <c r="BD279"/>
     </row>
-    <row r="280" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="280" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C280" s="9"/>
       <c r="G280" s="6"/>
       <c r="AU280"/>
@@ -26410,7 +26408,7 @@
       <c r="BC280"/>
       <c r="BD280"/>
     </row>
-    <row r="281" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="281" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C281" s="9"/>
       <c r="G281" s="6"/>
       <c r="AU281"/>
@@ -26423,7 +26421,7 @@
       <c r="BC281"/>
       <c r="BD281"/>
     </row>
-    <row r="282" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="282" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C282" s="9"/>
       <c r="G282" s="6"/>
       <c r="AU282"/>
@@ -26436,7 +26434,7 @@
       <c r="BC282"/>
       <c r="BD282"/>
     </row>
-    <row r="283" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="283" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C283" s="9"/>
       <c r="G283" s="6"/>
       <c r="AU283"/>
@@ -26449,7 +26447,7 @@
       <c r="BC283"/>
       <c r="BD283"/>
     </row>
-    <row r="284" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="284" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C284" s="9"/>
       <c r="G284" s="6"/>
       <c r="AU284"/>
@@ -26462,7 +26460,7 @@
       <c r="BC284"/>
       <c r="BD284"/>
     </row>
-    <row r="285" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="285" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C285" s="9"/>
       <c r="G285" s="6"/>
       <c r="AU285"/>
@@ -26475,7 +26473,7 @@
       <c r="BC285"/>
       <c r="BD285"/>
     </row>
-    <row r="286" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="286" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C286" s="9"/>
       <c r="G286" s="6"/>
       <c r="AU286"/>
@@ -26488,7 +26486,7 @@
       <c r="BC286"/>
       <c r="BD286"/>
     </row>
-    <row r="287" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="287" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C287" s="9"/>
       <c r="G287" s="6"/>
       <c r="AU287"/>
@@ -26501,7 +26499,7 @@
       <c r="BC287"/>
       <c r="BD287"/>
     </row>
-    <row r="288" spans="3:56" x14ac:dyDescent="0.45">
+    <row r="288" spans="3:56" x14ac:dyDescent="0.25">
       <c r="C288" s="9"/>
       <c r="G288" s="6"/>
       <c r="AU288"/>
@@ -26514,7 +26512,7 @@
       <c r="BC288"/>
       <c r="BD288"/>
     </row>
-    <row r="289" spans="3:117" x14ac:dyDescent="0.45">
+    <row r="289" spans="3:117" x14ac:dyDescent="0.25">
       <c r="C289" s="9"/>
       <c r="G289" s="6"/>
       <c r="AU289"/>
@@ -26527,7 +26525,7 @@
       <c r="BC289"/>
       <c r="BD289"/>
     </row>
-    <row r="290" spans="3:117" x14ac:dyDescent="0.45">
+    <row r="290" spans="3:117" x14ac:dyDescent="0.25">
       <c r="C290" s="9"/>
       <c r="G290" s="6"/>
       <c r="AU290"/>
@@ -26540,7 +26538,7 @@
       <c r="BC290"/>
       <c r="BD290"/>
     </row>
-    <row r="291" spans="3:117" x14ac:dyDescent="0.45">
+    <row r="291" spans="3:117" x14ac:dyDescent="0.25">
       <c r="C291" s="9"/>
       <c r="G291" s="6"/>
       <c r="AU291"/>
@@ -26553,7 +26551,7 @@
       <c r="BC291"/>
       <c r="BD291"/>
     </row>
-    <row r="292" spans="3:117" x14ac:dyDescent="0.45">
+    <row r="292" spans="3:117" x14ac:dyDescent="0.25">
       <c r="C292" s="9"/>
       <c r="G292" s="6"/>
       <c r="AU292"/>
@@ -26566,7 +26564,7 @@
       <c r="BC292"/>
       <c r="BD292"/>
     </row>
-    <row r="293" spans="3:117" x14ac:dyDescent="0.45">
+    <row r="293" spans="3:117" x14ac:dyDescent="0.25">
       <c r="CR293" s="13"/>
       <c r="CU293" s="13"/>
       <c r="CX293" s="13"/>

--- a/Tests/UnderReview/Cotton/Observed/Narrabri23.xlsx
+++ b/Tests/UnderReview/Cotton/Observed/Narrabri23.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ApsimX\Tests\UnderReview\Cotton\Observed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6E68FFA-27D2-4795-99CD-ABE97EF748A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF2EA852-2DC7-4052-AFB6-D39EBC5420DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="3360" windowWidth="29040" windowHeight="17640" xr2:uid="{2CD5F283-94FE-4198-B98E-779709417693}"/>
   </bookViews>
@@ -344,13 +344,7 @@
     <t>dw_OB</t>
   </si>
   <si>
-    <t>Cotton.Fruit.Nconc</t>
-  </si>
-  <si>
     <t>Cotton.Lint.Wt</t>
-  </si>
-  <si>
-    <t>Cotton.Fruit.HarvestIndex</t>
   </si>
   <si>
     <t>Yield_bales</t>
@@ -360,9 +354,6 @@
   </si>
   <si>
     <t>AboveGround.Partitioning.Leaf</t>
-  </si>
-  <si>
-    <t>AboveGround.Partitioning.Fruit</t>
   </si>
   <si>
     <t>LeafArea.Site</t>
@@ -582,6 +573,15 @@
   </si>
   <si>
     <t>openbolls</t>
+  </si>
+  <si>
+    <t>Cotton.Boll.NConc</t>
+  </si>
+  <si>
+    <t>Cotton.Boll.HarvestIndex</t>
+  </si>
+  <si>
+    <t>AboveGround.Partitioning.Boll</t>
   </si>
 </sst>
 </file>
@@ -991,10 +991,10 @@
   <dimension ref="A1:FJ292"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="U53" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="BU2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W29" sqref="W2:W86"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1192,10 +1192,10 @@
         <v>63</v>
       </c>
       <c r="O1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="P1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="Q1" t="s">
         <v>53</v>
@@ -1216,7 +1216,7 @@
         <v>55</v>
       </c>
       <c r="W1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="X1" t="s">
         <v>16</v>
@@ -1243,16 +1243,16 @@
         <v>71</v>
       </c>
       <c r="AF1" t="s">
+        <v>130</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>132</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>131</v>
+      </c>
+      <c r="AI1" t="s">
         <v>133</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>136</v>
       </c>
       <c r="AJ1" t="s">
         <v>58</v>
@@ -1261,22 +1261,22 @@
         <v>60</v>
       </c>
       <c r="AL1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="AM1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="AN1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="AO1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="AP1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="AQ1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="AR1" t="s">
         <v>59</v>
@@ -1285,16 +1285,16 @@
         <v>72</v>
       </c>
       <c r="AT1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="AU1" s="12" t="s">
         <v>96</v>
       </c>
       <c r="AV1" s="12" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="AW1" s="12" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="AX1" t="s">
         <v>97</v>
@@ -1303,19 +1303,19 @@
         <v>98</v>
       </c>
       <c r="AZ1" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="BA1" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="BB1" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="BA1" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="BB1" s="12" t="s">
-        <v>148</v>
-      </c>
       <c r="BC1" s="12" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="BD1" s="12" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="BE1" t="s">
         <v>99</v>
@@ -1327,61 +1327,61 @@
         <v>101</v>
       </c>
       <c r="BH1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="BI1" t="s">
-        <v>102</v>
+        <v>179</v>
       </c>
       <c r="BJ1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="BK1" t="s">
         <v>61</v>
       </c>
       <c r="BL1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="BM1" t="s">
-        <v>104</v>
+        <v>180</v>
       </c>
       <c r="BN1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="BO1" t="s">
         <v>9</v>
       </c>
       <c r="BP1" t="s">
+        <v>102</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>121</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>147</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>146</v>
+      </c>
+      <c r="BT1" t="s">
         <v>103</v>
       </c>
-      <c r="BQ1" t="s">
-        <v>124</v>
-      </c>
-      <c r="BR1" t="s">
-        <v>150</v>
-      </c>
-      <c r="BS1" t="s">
-        <v>149</v>
-      </c>
-      <c r="BT1" t="s">
+      <c r="BU1" t="s">
+        <v>122</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>123</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>108</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>104</v>
+      </c>
+      <c r="BY1" t="s">
         <v>105</v>
       </c>
-      <c r="BU1" t="s">
-        <v>125</v>
-      </c>
-      <c r="BV1" t="s">
-        <v>126</v>
-      </c>
-      <c r="BW1" t="s">
-        <v>111</v>
-      </c>
-      <c r="BX1" t="s">
-        <v>106</v>
-      </c>
-      <c r="BY1" t="s">
-        <v>107</v>
-      </c>
       <c r="BZ1" t="s">
-        <v>108</v>
+        <v>181</v>
       </c>
       <c r="CA1" t="s">
         <v>70</v>
@@ -1405,7 +1405,7 @@
         <v>8</v>
       </c>
       <c r="CH1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="CI1" t="s">
         <v>50</v>
@@ -1426,97 +1426,97 @@
         <v>66</v>
       </c>
       <c r="CO1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="CP1" t="s">
         <v>86</v>
       </c>
       <c r="CQ1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="CR1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="CS1" t="s">
         <v>73</v>
       </c>
       <c r="CT1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="CU1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="CV1" t="s">
         <v>74</v>
       </c>
       <c r="CW1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="CX1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="CY1" t="s">
         <v>82</v>
       </c>
       <c r="CZ1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="DA1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="DB1" t="s">
         <v>81</v>
       </c>
       <c r="DC1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="DD1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="DE1" t="s">
         <v>80</v>
       </c>
       <c r="DF1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="DG1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="DH1" t="s">
         <v>91</v>
       </c>
       <c r="DI1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="DJ1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="DK1" t="s">
         <v>92</v>
       </c>
       <c r="DL1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="DM1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="DN1" t="s">
         <v>79</v>
       </c>
       <c r="DO1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="DP1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="DQ1" t="s">
         <v>78</v>
       </c>
       <c r="DR1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="DS1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="DT1" t="s">
         <v>77</v>
@@ -1525,7 +1525,7 @@
         <v>83</v>
       </c>
       <c r="DV1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="DW1" t="s">
         <v>76</v>
@@ -1534,7 +1534,7 @@
         <v>84</v>
       </c>
       <c r="DY1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="DZ1" t="s">
         <v>75</v>
@@ -1549,49 +1549,49 @@
         <v>21</v>
       </c>
       <c r="ED1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="EE1" t="s">
         <v>22</v>
       </c>
       <c r="EF1" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="EG1" t="s">
         <v>23</v>
       </c>
       <c r="EH1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="EI1" t="s">
         <v>24</v>
       </c>
       <c r="EJ1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="EK1" t="s">
         <v>25</v>
       </c>
       <c r="EL1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="EM1" t="s">
         <v>26</v>
       </c>
       <c r="EN1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="EO1" t="s">
         <v>27</v>
       </c>
       <c r="EP1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="EQ1" t="s">
         <v>28</v>
       </c>
       <c r="ER1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="ES1" t="s">
         <v>46</v>
@@ -1650,7 +1650,7 @@
     </row>
     <row r="2" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1659,7 +1659,7 @@
         <v>45211</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F2" t="s">
         <v>10</v>
@@ -1709,7 +1709,7 @@
     </row>
     <row r="3" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1840,7 +1840,7 @@
     </row>
     <row r="4" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1971,7 +1971,7 @@
     </row>
     <row r="5" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -2102,7 +2102,7 @@
     </row>
     <row r="6" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -2161,7 +2161,7 @@
     </row>
     <row r="7" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B7">
         <v>1</v>
@@ -2170,7 +2170,7 @@
         <v>45265</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F7" t="s">
         <v>12</v>
@@ -2220,7 +2220,7 @@
     </row>
     <row r="8" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B8">
         <v>1</v>
@@ -2279,7 +2279,7 @@
     </row>
     <row r="9" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -2410,7 +2410,7 @@
     </row>
     <row r="10" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -2553,7 +2553,7 @@
     </row>
     <row r="11" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -2684,7 +2684,7 @@
     </row>
     <row r="12" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -2743,7 +2743,7 @@
     </row>
     <row r="13" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -2874,7 +2874,7 @@
     </row>
     <row r="14" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -2883,7 +2883,7 @@
         <v>45285</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F14" t="s">
         <v>13</v>
@@ -2933,7 +2933,7 @@
     </row>
     <row r="15" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B15">
         <v>1</v>
@@ -3076,7 +3076,7 @@
     </row>
     <row r="16" spans="1:166" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -3199,7 +3199,7 @@
     </row>
     <row r="17" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B17">
         <v>1</v>
@@ -3330,7 +3330,7 @@
     </row>
     <row r="18" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B18">
         <v>1</v>
@@ -3461,7 +3461,7 @@
     </row>
     <row r="19" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B19">
         <v>1</v>
@@ -3604,7 +3604,7 @@
     </row>
     <row r="20" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B20">
         <v>1</v>
@@ -3613,10 +3613,10 @@
         <v>45308</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F20" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G20">
         <v>97</v>
@@ -3669,7 +3669,7 @@
     </row>
     <row r="21" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -3800,7 +3800,7 @@
     </row>
     <row r="22" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -3859,7 +3859,7 @@
     </row>
     <row r="23" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -3918,7 +3918,7 @@
     </row>
     <row r="24" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B24">
         <v>1</v>
@@ -4061,7 +4061,7 @@
     </row>
     <row r="25" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -4192,7 +4192,7 @@
     </row>
     <row r="26" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -4308,7 +4308,7 @@
     </row>
     <row r="27" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B27">
         <v>1</v>
@@ -4317,7 +4317,7 @@
         <v>45355</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F27" t="s">
         <v>14</v>
@@ -4367,7 +4367,7 @@
     </row>
     <row r="28" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -4484,7 +4484,7 @@
     </row>
     <row r="29" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -4493,7 +4493,7 @@
         <v>45421</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F29" t="s">
         <v>15</v>
@@ -4565,7 +4565,7 @@
     </row>
     <row r="30" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B30">
         <v>3</v>
@@ -4574,7 +4574,7 @@
         <v>45211</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F30" t="s">
         <v>10</v>
@@ -4624,7 +4624,7 @@
     </row>
     <row r="31" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B31">
         <v>3</v>
@@ -4755,7 +4755,7 @@
     </row>
     <row r="32" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B32">
         <v>3</v>
@@ -4886,7 +4886,7 @@
     </row>
     <row r="33" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B33">
         <v>3</v>
@@ -5017,7 +5017,7 @@
     </row>
     <row r="34" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B34">
         <v>3</v>
@@ -5076,7 +5076,7 @@
     </row>
     <row r="35" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B35">
         <v>3</v>
@@ -5085,7 +5085,7 @@
         <v>45266</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F35" t="s">
         <v>12</v>
@@ -5135,7 +5135,7 @@
     </row>
     <row r="36" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B36">
         <v>3</v>
@@ -5194,7 +5194,7 @@
     </row>
     <row r="37" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B37">
         <v>3</v>
@@ -5325,7 +5325,7 @@
     </row>
     <row r="38" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B38">
         <v>3</v>
@@ -5468,7 +5468,7 @@
     </row>
     <row r="39" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B39">
         <v>3</v>
@@ -5599,7 +5599,7 @@
     </row>
     <row r="40" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B40">
         <v>3</v>
@@ -5658,7 +5658,7 @@
     </row>
     <row r="41" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B41">
         <v>3</v>
@@ -5789,7 +5789,7 @@
     </row>
     <row r="42" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -5798,7 +5798,7 @@
         <v>45286</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F42" t="s">
         <v>13</v>
@@ -5848,7 +5848,7 @@
     </row>
     <row r="43" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B43">
         <v>3</v>
@@ -5991,7 +5991,7 @@
     </row>
     <row r="44" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B44">
         <v>3</v>
@@ -6114,7 +6114,7 @@
     </row>
     <row r="45" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B45">
         <v>3</v>
@@ -6245,7 +6245,7 @@
     </row>
     <row r="46" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B46">
         <v>3</v>
@@ -6376,7 +6376,7 @@
     </row>
     <row r="47" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B47">
         <v>3</v>
@@ -6385,10 +6385,10 @@
         <v>45302</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F47" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G47">
         <v>91</v>
@@ -6438,7 +6438,7 @@
     </row>
     <row r="48" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B48">
         <v>3</v>
@@ -6581,7 +6581,7 @@
     </row>
     <row r="49" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B49">
         <v>3</v>
@@ -6640,7 +6640,7 @@
     </row>
     <row r="50" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B50">
         <v>3</v>
@@ -6771,7 +6771,7 @@
     </row>
     <row r="51" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B51">
         <v>3</v>
@@ -6830,7 +6830,7 @@
     </row>
     <row r="52" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B52">
         <v>3</v>
@@ -6889,7 +6889,7 @@
     </row>
     <row r="53" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B53">
         <v>3</v>
@@ -7032,7 +7032,7 @@
     </row>
     <row r="54" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B54">
         <v>3</v>
@@ -7163,7 +7163,7 @@
     </row>
     <row r="55" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B55">
         <v>3</v>
@@ -7279,7 +7279,7 @@
     </row>
     <row r="56" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B56">
         <v>3</v>
@@ -7288,7 +7288,7 @@
         <v>45350</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F56" t="s">
         <v>14</v>
@@ -7338,7 +7338,7 @@
     </row>
     <row r="57" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B57">
         <v>3</v>
@@ -7455,7 +7455,7 @@
     </row>
     <row r="58" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B58">
         <v>3</v>
@@ -7464,7 +7464,7 @@
         <v>45421</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F58" t="s">
         <v>15</v>
@@ -7535,7 +7535,7 @@
     </row>
     <row r="59" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B59">
         <v>5</v>
@@ -7544,7 +7544,7 @@
         <v>45211</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F59" t="s">
         <v>10</v>
@@ -7594,7 +7594,7 @@
     </row>
     <row r="60" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B60">
         <v>5</v>
@@ -7725,7 +7725,7 @@
     </row>
     <row r="61" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B61">
         <v>5</v>
@@ -7856,7 +7856,7 @@
     </row>
     <row r="62" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B62">
         <v>5</v>
@@ -7987,7 +7987,7 @@
     </row>
     <row r="63" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B63">
         <v>5</v>
@@ -8046,7 +8046,7 @@
     </row>
     <row r="64" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B64">
         <v>5</v>
@@ -8055,7 +8055,7 @@
         <v>45266</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F64" t="s">
         <v>12</v>
@@ -8105,7 +8105,7 @@
     </row>
     <row r="65" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B65">
         <v>5</v>
@@ -8164,7 +8164,7 @@
     </row>
     <row r="66" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B66">
         <v>5</v>
@@ -8295,7 +8295,7 @@
     </row>
     <row r="67" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B67">
         <v>5</v>
@@ -8438,7 +8438,7 @@
     </row>
     <row r="68" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B68">
         <v>5</v>
@@ -8569,7 +8569,7 @@
     </row>
     <row r="69" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B69">
         <v>5</v>
@@ -8628,7 +8628,7 @@
     </row>
     <row r="70" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B70">
         <v>5</v>
@@ -8759,7 +8759,7 @@
     </row>
     <row r="71" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B71">
         <v>5</v>
@@ -8768,7 +8768,7 @@
         <v>45284</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F71" t="s">
         <v>13</v>
@@ -8818,7 +8818,7 @@
     </row>
     <row r="72" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B72">
         <v>5</v>
@@ -8961,7 +8961,7 @@
     </row>
     <row r="73" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B73">
         <v>5</v>
@@ -9084,7 +9084,7 @@
     </row>
     <row r="74" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B74">
         <v>5</v>
@@ -9215,7 +9215,7 @@
     </row>
     <row r="75" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B75">
         <v>5</v>
@@ -9346,7 +9346,7 @@
     </row>
     <row r="76" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B76">
         <v>5</v>
@@ -9489,7 +9489,7 @@
     </row>
     <row r="77" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B77">
         <v>5</v>
@@ -9548,7 +9548,7 @@
     </row>
     <row r="78" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B78">
         <v>5</v>
@@ -9679,7 +9679,7 @@
     </row>
     <row r="79" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B79">
         <v>5</v>
@@ -9738,7 +9738,7 @@
     </row>
     <row r="80" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B80">
         <v>5</v>
@@ -9797,7 +9797,7 @@
     </row>
     <row r="81" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B81">
         <v>5</v>
@@ -9806,10 +9806,10 @@
         <v>45322</v>
       </c>
       <c r="E81" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F81" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G81">
         <v>111</v>
@@ -9858,7 +9858,7 @@
     </row>
     <row r="82" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B82">
         <v>5</v>
@@ -10001,7 +10001,7 @@
     </row>
     <row r="83" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B83">
         <v>5</v>
@@ -10132,7 +10132,7 @@
     </row>
     <row r="84" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B84">
         <v>5</v>
@@ -10256,7 +10256,7 @@
     </row>
     <row r="85" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B85">
         <v>5</v>
@@ -10265,7 +10265,7 @@
         <v>45370</v>
       </c>
       <c r="E85" s="7" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="F85" t="s">
         <v>14</v>
@@ -10379,7 +10379,7 @@
     </row>
     <row r="86" spans="1:122" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B86">
         <v>5</v>
@@ -10388,7 +10388,7 @@
         <v>45421</v>
       </c>
       <c r="E86" s="7" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F86" t="s">
         <v>15</v>

--- a/Tests/UnderReview/Cotton/Observed/Narrabri23.xlsx
+++ b/Tests/UnderReview/Cotton/Observed/Narrabri23.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\ApsimX\Tests\UnderReview\Cotton\Observed\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D78FF71F-E508-4825-9D3A-7FAC6856B525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A77040E-8DE0-46BF-9ABC-14DBB76B73A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="3360" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{2CD5F283-94FE-4198-B98E-779709417693}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{2CD5F283-94FE-4198-B98E-779709417693}"/>
   </bookViews>
   <sheets>
     <sheet name="CottonObserved" sheetId="1" r:id="rId1"/>
     <sheet name="PhenologyObserved" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CottonObserved!$A$1:$FB$291</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">CottonObserved!$A$1:$FB$86</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PhenologyObserved!$A$1:$H$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -971,11 +971,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C911DF83-7300-4B7A-8A42-16858D40307A}">
   <dimension ref="A1:FB292"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="1" topLeftCell="AS2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" sqref="A1:XFD1048576"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2908,6 +2908,10 @@
       <c r="BC16" s="1">
         <v>307.55</v>
       </c>
+      <c r="BE16" s="3">
+        <f>AZ16/BC16</f>
+        <v>9.3940822630466589E-2</v>
+      </c>
       <c r="BS16" s="1">
         <v>237.55</v>
       </c>
@@ -3867,6 +3871,10 @@
       <c r="BC26" s="1">
         <v>954.274</v>
       </c>
+      <c r="BE26" s="3">
+        <f>AZ26/BC26</f>
+        <v>0.508502275027927</v>
+      </c>
       <c r="BS26" s="1">
         <v>292.25</v>
       </c>
@@ -4009,6 +4017,10 @@
       </c>
       <c r="BC28" s="1">
         <v>1521.684</v>
+      </c>
+      <c r="BE28" s="3">
+        <f>AZ28/BC28</f>
+        <v>0.54689114165621777</v>
       </c>
       <c r="BJ28" s="8">
         <v>3.2227500000000006E-2</v>
@@ -5403,6 +5415,10 @@
       <c r="BC44" s="1">
         <v>338.89850000000001</v>
       </c>
+      <c r="BE44" s="3">
+        <f>AZ44/BC44</f>
+        <v>0.11179748508771799</v>
+      </c>
       <c r="BS44" s="1">
         <v>265.45</v>
       </c>
@@ -6403,6 +6419,10 @@
       <c r="BC55" s="1">
         <v>822.89449999999988</v>
       </c>
+      <c r="BE55" s="3">
+        <f>AZ55/BC55</f>
+        <v>0.52553638406867464</v>
+      </c>
       <c r="BS55" s="1">
         <v>266.95</v>
       </c>
@@ -6545,6 +6565,10 @@
       </c>
       <c r="BC57" s="1">
         <v>1431.8695</v>
+      </c>
+      <c r="BE57" s="3">
+        <f>AZ57/BC57</f>
+        <v>0.53293648618117795</v>
       </c>
       <c r="BJ57" s="8">
         <v>3.1292500000000001E-2</v>
@@ -7938,6 +7962,10 @@
       <c r="BC73" s="1">
         <v>360.76150000000007</v>
       </c>
+      <c r="BE73" s="3">
+        <f>AZ73/BC73</f>
+        <v>0.11639268602664085</v>
+      </c>
       <c r="BS73" s="1">
         <v>297.10000000000002</v>
       </c>
@@ -8937,6 +8965,10 @@
       <c r="BC84" s="1">
         <v>1166.454</v>
       </c>
+      <c r="BE84" s="3">
+        <f>AZ84/BC84</f>
+        <v>0.52166866417364088</v>
+      </c>
       <c r="BS84" s="1">
         <v>357.2</v>
       </c>
@@ -9049,6 +9081,10 @@
       </c>
       <c r="BC85" s="1">
         <v>1372.3085000000001</v>
+      </c>
+      <c r="BE85" s="3">
+        <f>AZ85/BC85</f>
+        <v>0.55956004061768905</v>
       </c>
       <c r="BJ85" s="8">
         <v>3.8272500000000001E-2</v>
@@ -25711,7 +25747,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE39395F-4B9B-42BB-882D-EC224DB88F94}">
   <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="39.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
